--- a/AppTec/practice/TeamA/view.xlsx
+++ b/AppTec/practice/TeamA/view.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="230">
   <si>
     <t>掲示板システム</t>
     <rPh sb="0" eb="3">
@@ -838,16 +838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・名称重複</t>
-    <rPh sb="1" eb="3">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(10文字以内で入力してください)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1719,28 +1709,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・支社と部署以外の内容に重複がある場合</t>
-    <rPh sb="1" eb="3">
-      <t>シシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2273,19 +2241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※その名称は既に登録されています</t>
-    <rPh sb="3" eb="5">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※正しい組み合わせで支社/部署を入力してください</t>
     <rPh sb="1" eb="2">
       <t>タダ</t>
@@ -2334,22 +2289,6 @@
     <t>※そのユーザーはすでに登録されています</t>
     <rPh sb="11" eb="13">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージ、10字以上で入力されていた場合</t>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2710,6 +2649,66 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期の表示件数は最大10件とする</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ、11文字以上で入力されていた場合</t>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・支社・部署・名称以外の内容に重複がある場合</t>
+    <rPh sb="1" eb="3">
+      <t>シシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3437,6 +3436,72 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3467,46 +3532,97 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3518,54 +3634,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3593,49 +3661,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3644,14 +3676,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3668,12 +3697,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3733,30 +3756,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4179,38 +4178,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="E1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -4258,10 +4257,10 @@
       <c r="L5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="77"/>
+      <c r="N5" s="99"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="18"/>
@@ -4279,10 +4278,10 @@
       <c r="L6" s="10">
         <v>3</v>
       </c>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="77"/>
+      <c r="N6" s="99"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -4298,7 +4297,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="M7" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N7" s="18"/>
     </row>
@@ -4306,16 +4305,16 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="M8" s="30" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -4326,14 +4325,14 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="M9" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N9" s="18"/>
       <c r="Q9" s="30"/>
@@ -4367,26 +4366,26 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="M11" s="18" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79">
         <v>1</v>
       </c>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="9"/>
       <c r="I12" s="3"/>
       <c r="M12" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -4403,26 +4402,26 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="M13" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="84">
+      <c r="B14" s="78"/>
+      <c r="C14" s="82">
         <v>2</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="84"/>
       <c r="H14" s="9"/>
       <c r="I14" s="3"/>
       <c r="M14" s="67" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N14" s="18"/>
       <c r="Q14" s="30"/>
@@ -4438,20 +4437,20 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="M15" s="18" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+      <c r="C16" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
       <c r="H16" s="9"/>
       <c r="I16" s="3"/>
       <c r="M16" s="30" t="s">
@@ -4471,7 +4470,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="M17" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N17" s="18"/>
     </row>
@@ -4479,18 +4478,18 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="75">
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="97">
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="M18" s="67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N18" s="18"/>
       <c r="Q18" s="42"/>
@@ -4499,14 +4498,14 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="M19" s="18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -4520,7 +4519,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="M20" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -4557,7 +4556,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="M22" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P22" s="18"/>
     </row>
@@ -4761,17 +4760,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A1:I2"/>
     <mergeCell ref="D18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="D8:F9"/>
     <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4783,55 +4782,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="G19" zoomScale="71" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="122" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="123"/>
-      <c r="K2" s="10">
-        <v>1</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="102"/>
+      <c r="K2" s="69" t="s">
+        <v>227</v>
+      </c>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="46"/>
@@ -4843,38 +4836,40 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="L3" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="169"/>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="125"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="37"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="131" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="132"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="169"/>
-      <c r="L4" s="170" t="s">
-        <v>209</v>
-      </c>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="169"/>
+      <c r="L4" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
@@ -4883,18 +4878,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="134"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="3"/>
-      <c r="K5" s="10">
-        <v>2</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="Q5" s="169"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
@@ -4910,59 +4904,60 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
-      <c r="L6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="Q6" s="169"/>
+      <c r="K6" s="10">
+        <v>2</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="Q6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="81">
+      <c r="B7" s="79">
         <v>3</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="81">
+      <c r="C7" s="81"/>
+      <c r="D7" s="79">
         <v>4</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="129" t="s">
+      <c r="E7" s="80"/>
+      <c r="F7" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="130"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
-      <c r="K7" s="10">
-        <v>3</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="19"/>
-      <c r="Q7" s="169"/>
+      <c r="L7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="Q7" s="70"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="95"/>
+      <c r="D8" s="134" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="134"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="170"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="169"/>
+      <c r="K8" s="10">
+        <v>3</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="70"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
@@ -4974,153 +4969,155 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="169"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="N9" s="169"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
+        <v>22</v>
+      </c>
+      <c r="M9" s="71"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="94"/>
+      <c r="B10" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="133"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="18"/>
+        <v>206</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="96" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="L11" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="L14" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="L16" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="110"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="130" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="131"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="L17" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
@@ -5136,79 +5133,81 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="L18" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="81" t="s">
+      <c r="B19" s="132" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
-      <c r="K19" s="10">
-        <v>4</v>
-      </c>
-      <c r="L19" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="47"/>
+      <c r="L19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
-      <c r="L20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
+      <c r="K20" s="10">
+        <v>4</v>
+      </c>
+      <c r="L20" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="47"/>
     </row>
     <row r="21" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="1"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
       <c r="L21" s="18" t="s">
-        <v>197</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
-      <c r="L22" s="13" t="s">
-        <v>230</v>
+      <c r="L22" s="18" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5221,21 +5220,16 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
-      <c r="K23" s="10">
-        <v>5</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="L23" s="13" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="94"/>
+      <c r="B24" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="133"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -5243,87 +5237,90 @@
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="K24" s="10">
-        <v>6</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M24" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="B25" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="136"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="10">
-        <v>7</v>
-      </c>
-      <c r="L25" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="50"/>
       <c r="I26" s="3"/>
+      <c r="K26" s="10">
+        <v>7</v>
+      </c>
       <c r="L26" s="47" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="14"/>
+      <c r="N26" s="18"/>
       <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
-      <c r="K27" s="10">
-        <v>8</v>
-      </c>
       <c r="L27" s="47" t="s">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="M27" s="47"/>
-      <c r="N27" s="18"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="120"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
-      <c r="L28" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="M28" s="18"/>
+      <c r="K28" s="10">
+        <v>8</v>
+      </c>
+      <c r="L28" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="47"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5336,151 +5333,156 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="13" t="s">
-        <v>229</v>
+      <c r="L29" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-      <c r="B30" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="94"/>
+      <c r="B30" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="133"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
-      <c r="L30" s="18" t="s">
-        <v>108</v>
+      <c r="K30" s="10"/>
+      <c r="L30" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="96" t="s">
+      <c r="C31" s="118"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="119"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
-      <c r="L31" s="13" t="s">
-        <v>110</v>
-      </c>
+      <c r="L31" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="101"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
-      <c r="K32" s="10">
-        <v>9</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="L32" s="13" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
+      <c r="K33" s="10">
+        <v>9</v>
+      </c>
       <c r="L33" s="18" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="104"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
-      <c r="K34" s="10">
-        <v>10</v>
-      </c>
       <c r="L34" s="18" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="104"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
+      <c r="K35" s="10">
+        <v>10</v>
+      </c>
       <c r="L35" s="18" t="s">
-        <v>146</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="1"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="104"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
-      <c r="K36" s="10">
-        <v>11</v>
-      </c>
       <c r="L36" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="18"/>
+        <v>145</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="G37" s="110"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="131"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
+      <c r="K37" s="10">
+        <v>11</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="M37" s="18"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
@@ -6408,6 +6410,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B12:G16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:G36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A4:B4"/>
@@ -6419,22 +6437,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:G36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B12:G16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6454,30 +6456,30 @@
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="122" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="101" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="123"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="102"/>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="46"/>
@@ -6489,33 +6491,33 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="111" t="s">
+      <c r="K3" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="121"/>
-      <c r="M3" s="138"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="144"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="125"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="37"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="131" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="132"/>
+      <c r="H4" s="113"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="139"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="145"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -6528,17 +6530,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="134"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="79" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
+      <c r="L5" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6556,31 +6558,31 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="129" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="130"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6594,13 +6596,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6623,10 +6625,10 @@
     </row>
     <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
-      <c r="B10" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="120"/>
+      <c r="B10" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="143"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6634,29 +6636,29 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="109" t="s">
+      <c r="L10" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="110"/>
+      <c r="M10" s="131"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="136" t="s">
+      <c r="O10" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="137"/>
+      <c r="P10" s="148"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="96" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
@@ -6669,32 +6671,32 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="111" t="s">
+      <c r="K13" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="121"/>
-      <c r="M13" s="138"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="144"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -6702,17 +6704,17 @@
     </row>
     <row r="14" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="K14" s="127"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="139"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="145"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6720,62 +6722,62 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="104"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
+      <c r="L15" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="109" t="s">
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="110"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6789,21 +6791,21 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
-      <c r="B19" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="120"/>
+      <c r="B19" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="143"/>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6820,37 +6822,37 @@
     </row>
     <row r="20" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
       <c r="G20" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="109" t="s">
+      <c r="L20" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="110"/>
+      <c r="M20" s="131"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="136" t="s">
+      <c r="O20" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="137"/>
+      <c r="P20" s="148"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -6864,11 +6866,11 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
       <c r="G22" s="38"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
@@ -6886,10 +6888,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="120"/>
+      <c r="B24" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="143"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -6907,14 +6909,14 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="111" t="s">
+      <c r="B25" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="113"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="136"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="18"/>
@@ -6926,12 +6928,12 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="139"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10">
@@ -6945,12 +6947,12 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="K27" s="13"/>
@@ -6962,14 +6964,14 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="120"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="143"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
     </row>
@@ -6997,10 +6999,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="120"/>
+      <c r="B31" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="143"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -7010,88 +7012,88 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="96" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="119"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="101"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="104"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="104"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="104"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="104"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="125"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
-      <c r="B38" s="107" t="s">
+      <c r="B38" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="136" t="s">
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="137"/>
+      <c r="G38" s="148"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
     </row>
@@ -8010,13 +8012,16 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="L5:P7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="L8:P8"/>
@@ -8028,23 +8033,20 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B20:F22"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="L15:P17"/>
     <mergeCell ref="B33:G37"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="K3:M4"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="L5:P7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8057,38 +8059,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="I16" zoomScale="84" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
+      <c r="A1" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -8108,11 +8110,11 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="124" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
+      <c r="A4" s="103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -8122,13 +8124,13 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="77" t="s">
-        <v>228</v>
-      </c>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="L4" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
@@ -8147,11 +8149,11 @@
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
+      <c r="L5" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -8166,16 +8168,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="144" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="145"/>
+      <c r="G6" s="154" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="155"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>3</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -8188,10 +8190,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
-      <c r="B7" s="107" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="120"/>
+      <c r="B7" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="143"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -8200,7 +8202,7 @@
       <c r="I7" s="3"/>
       <c r="K7" s="10"/>
       <c r="L7" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -8213,23 +8215,23 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="117" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="3"/>
       <c r="K8" s="10">
         <v>4</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -8242,43 +8244,43 @@
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="120" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="104"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="3"/>
       <c r="L10" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="3"/>
       <c r="K11" s="10">
         <v>5</v>
@@ -8291,30 +8293,30 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="146"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="149"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
@@ -8326,7 +8328,7 @@
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26"/>
       <c r="B14" s="61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="39"/>
@@ -8338,17 +8340,17 @@
       <c r="K14" s="10">
         <v>6</v>
       </c>
-      <c r="L14" s="147" t="s">
-        <v>224</v>
-      </c>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
+      <c r="L14" s="150" t="s">
+        <v>220</v>
+      </c>
+      <c r="M14" s="150"/>
+      <c r="N14" s="150"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="150"/>
+      <c r="Q14" s="150"/>
+      <c r="R14" s="150"/>
+      <c r="S14" s="150"/>
+      <c r="T14" s="150"/>
     </row>
     <row r="15" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
@@ -8360,8 +8362,8 @@
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="3"/>
-      <c r="L15" s="175" t="s">
-        <v>222</v>
+      <c r="L15" s="76" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -8372,12 +8374,12 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="3"/>
-      <c r="L16" s="175" t="s">
-        <v>223</v>
+      <c r="L16" s="76" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -8393,10 +8395,10 @@
       <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="147" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="147"/>
+      <c r="L17" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="150"/>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
@@ -8416,18 +8418,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="147" t="s">
-        <v>160</v>
-      </c>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
+      <c r="L18" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="150"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="150"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="150"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
@@ -8443,7 +8445,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -8461,7 +8463,7 @@
       <c r="I20" s="3"/>
       <c r="K20" s="10"/>
       <c r="L20" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -8479,7 +8481,7 @@
       <c r="I21" s="3"/>
       <c r="K21" s="10"/>
       <c r="L21" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -8501,7 +8503,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="L22" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -8520,7 +8522,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="L23" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P23" s="51"/>
       <c r="Q23" s="51"/>
@@ -8539,7 +8541,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="L24" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
@@ -8559,7 +8561,7 @@
       <c r="I25" s="3"/>
       <c r="K25" s="10"/>
       <c r="L25" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -8582,7 +8584,7 @@
       <c r="I26" s="3"/>
       <c r="K26" s="10"/>
       <c r="L26" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="41"/>
@@ -8605,7 +8607,7 @@
       <c r="I27" s="3"/>
       <c r="K27" s="10"/>
       <c r="L27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
@@ -8628,7 +8630,7 @@
       <c r="I28" s="3"/>
       <c r="K28" s="10"/>
       <c r="L28" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M28" s="51"/>
       <c r="N28" s="51"/>
@@ -8651,7 +8653,7 @@
       <c r="I29" s="3"/>
       <c r="K29" s="10"/>
       <c r="L29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
@@ -8669,7 +8671,7 @@
       <c r="I30" s="3"/>
       <c r="K30" s="10"/>
       <c r="L30" s="47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
@@ -8687,7 +8689,7 @@
       <c r="I31" s="3"/>
       <c r="K31" s="10"/>
       <c r="L31" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -8707,7 +8709,7 @@
         <v>9</v>
       </c>
       <c r="L32" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
@@ -8724,7 +8726,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="L33" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8795,18 +8797,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:H13"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:U18"/>
     <mergeCell ref="L14:T14"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8834,17 +8836,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="148" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="150"/>
+      <c r="A1" s="156" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="158"/>
       <c r="K1" s="44"/>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -8860,20 +8862,20 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="151"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="153"/>
-      <c r="K2" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="L2" s="121"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="161"/>
+      <c r="K2" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="L2" s="106"/>
+      <c r="M2" s="144"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -8895,28 +8897,28 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="35"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="139"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="145"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="110"/>
+      <c r="A4" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="130" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="162"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="62"/>
       <c r="H4" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I4" s="58"/>
       <c r="K4" s="1"/>
@@ -8938,13 +8940,13 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
+      <c r="L5" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="18"/>
     </row>
@@ -8959,72 +8961,72 @@
       <c r="H6" s="39"/>
       <c r="I6" s="58"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="174" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="D7" s="174" t="s">
+      <c r="F7" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="E7" s="174" t="s">
+      <c r="G7" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="H7" s="75" t="s">
         <v>175</v>
-      </c>
-      <c r="G7" s="174" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="174" t="s">
-        <v>177</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="171" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="171" t="s">
-        <v>115</v>
+      <c r="A8" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>114</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="172" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="172">
+        <v>116</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="73">
         <v>1546</v>
       </c>
-      <c r="F8" s="172">
+      <c r="F8" s="73">
         <v>461</v>
       </c>
-      <c r="G8" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" s="172" t="s">
-        <v>123</v>
+      <c r="G8" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>122</v>
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
@@ -9037,16 +9039,16 @@
     </row>
     <row r="9" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="43">
         <v>1567</v>
@@ -9055,36 +9057,36 @@
         <v>672</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="109" t="s">
+      <c r="L9" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="110"/>
+      <c r="M9" s="131"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="136" t="s">
+      <c r="O9" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="137"/>
+      <c r="P9" s="148"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="43">
         <v>1578</v>
@@ -9093,10 +9095,10 @@
         <v>781</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
@@ -9134,11 +9136,11 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="58"/>
-      <c r="K12" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="L12" s="121"/>
-      <c r="M12" s="138"/>
+      <c r="K12" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="106"/>
+      <c r="M12" s="144"/>
       <c r="N12" s="46"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -9155,9 +9157,9 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="58"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="139"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="145"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -9191,13 +9193,13 @@
       <c r="H15" s="39"/>
       <c r="I15" s="58"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
+      <c r="L15" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -9211,11 +9213,11 @@
       <c r="H16" s="39"/>
       <c r="I16" s="58"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9229,11 +9231,11 @@
       <c r="H17" s="39"/>
       <c r="I17" s="58"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -9265,15 +9267,15 @@
       <c r="H19" s="39"/>
       <c r="I19" s="58"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="109" t="s">
+      <c r="L19" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="110"/>
+      <c r="M19" s="131"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="136" t="s">
+      <c r="O19" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="137"/>
+      <c r="P19" s="148"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9330,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9347,7 +9349,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9364,7 +9366,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9381,7 +9383,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9395,7 +9397,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="58"/>
       <c r="L27" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9409,7 +9411,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="58"/>
       <c r="L28" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9423,10 +9425,10 @@
       <c r="H29" s="39"/>
       <c r="I29" s="58"/>
       <c r="K29" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9443,7 +9445,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9460,7 +9462,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9477,7 +9479,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9491,7 +9493,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="58"/>
       <c r="L33" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9508,7 +9510,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9523,7 +9525,7 @@
       <c r="I35" s="58"/>
       <c r="K35" s="10"/>
       <c r="L35" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9604,8 +9606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="I3" zoomScale="73" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9614,28 +9616,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="157"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="160"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="168"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="46"/>
@@ -9662,7 +9664,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -9685,34 +9687,34 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26"/>
       <c r="B6" s="53"/>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
       <c r="H6" s="39"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>2</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
       <c r="B7" s="53"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="39"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9726,7 +9728,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="3"/>
       <c r="L8" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9742,7 +9744,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P9" s="18"/>
     </row>
@@ -9750,16 +9752,16 @@
       <c r="A10" s="26"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="161" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
+      <c r="D10" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
       <c r="I10" s="3"/>
       <c r="L10" s="67" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -9775,7 +9777,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -9795,7 +9797,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="18"/>
       <c r="L12" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -9806,7 +9808,7 @@
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="53" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
@@ -9815,7 +9817,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9830,7 +9832,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="18"/>
       <c r="L14" s="67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9847,7 +9849,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -9887,7 +9889,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="18"/>
       <c r="L17" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -9905,7 +9907,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="18"/>
       <c r="L18" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O18" s="18"/>
       <c r="S18" s="18"/>
@@ -9926,7 +9928,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -9951,7 +9953,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="18"/>
       <c r="L20" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -9969,7 +9971,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="18"/>
       <c r="L21" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M21" s="18"/>
     </row>
@@ -9987,7 +9989,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="18"/>
       <c r="L22" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M22" s="18"/>
     </row>
@@ -10011,17 +10013,17 @@
       <c r="A24" s="26"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
+      <c r="D24" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="3"/>
       <c r="J24" s="18"/>
       <c r="L24" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M24" s="18"/>
     </row>
@@ -10038,7 +10040,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -10056,7 +10058,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="18"/>
       <c r="L26" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -10067,11 +10069,11 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G27" s="31">
         <v>1</v>
@@ -10243,8 +10245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10253,28 +10255,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="46"/>
@@ -10286,8 +10288,8 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="168" t="s">
-        <v>82</v>
+      <c r="K3" s="69" t="s">
+        <v>81</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -10299,20 +10301,20 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="K4" s="10">
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -10323,11 +10325,11 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
@@ -10350,7 +10352,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="57"/>
       <c r="L6" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -10370,7 +10372,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -10378,7 +10380,7 @@
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
@@ -10386,7 +10388,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="3"/>
       <c r="L8" s="67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="18"/>
     </row>
@@ -10401,7 +10403,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -10419,7 +10421,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="3"/>
       <c r="L10" s="67" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -10428,15 +10430,16 @@
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
       <c r="I11" s="3"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -10454,7 +10457,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -10474,9 +10477,8 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -10495,7 +10497,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="3"/>
       <c r="L14" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -10516,9 +10518,8 @@
       <c r="H15" s="39"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="18"/>
+        <v>186</v>
+      </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="Q15" s="18"/>
@@ -10533,10 +10534,9 @@
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="3"/>
-      <c r="L16" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="M16" s="18"/>
+      <c r="L16" s="67" t="s">
+        <v>166</v>
+      </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="Q16" s="18"/>
@@ -10555,9 +10555,13 @@
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="3"/>
+      <c r="K17" s="28">
+        <v>2</v>
+      </c>
       <c r="L17" s="18" t="s">
-        <v>188</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="M17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -10565,16 +10569,18 @@
       <c r="B18" s="53"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
       <c r="I18" s="3"/>
-      <c r="L18" s="67" t="s">
-        <v>168</v>
-      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="18"/>
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -10588,12 +10594,11 @@
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="K19" s="28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="M19" s="18"/>
+        <v>157</v>
+      </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -10610,11 +10615,9 @@
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
       <c r="I20" s="3"/>
-      <c r="K20" s="18"/>
       <c r="L20" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="18"/>
+        <v>169</v>
+      </c>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
@@ -10629,12 +10632,6 @@
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
       <c r="I21" s="58"/>
-      <c r="K21" s="28">
-        <v>3</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
@@ -10645,15 +10642,12 @@
       <c r="C22" s="39"/>
       <c r="D22" s="54"/>
       <c r="E22" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
       <c r="I22" s="58"/>
-      <c r="L22" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
@@ -10685,7 +10679,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="39"/>
       <c r="D25" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="21" t="s">

--- a/AppTec/practice/TeamA/view.xlsx
+++ b/AppTec/practice/TeamA/view.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systemi\Desktop\会社業務内\応用技術演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\project\Kenshu\Systemi_Training_2020\AppTec\practice\TeamA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="233">
   <si>
     <t>掲示板システム</t>
     <rPh sb="0" eb="3">
@@ -1150,16 +1150,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・コメントが501字以上</t>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※コメントを入力してください</t>
     <rPh sb="6" eb="8">
       <t>ニュウリョク</t>
@@ -1765,62 +1755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※6字以上20字以下の記号を含む半角文字で入力してください</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※6字以上20字以下半角英数字で入力してください</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャンセル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2228,19 +2162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※10字以下で入力してください</t>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※正しい組み合わせで支社/部署を入力してください</t>
     <rPh sb="1" eb="2">
       <t>タダ</t>
@@ -2376,34 +2297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>→コメントが全部表示、他者のコメントの上にコメント入力欄が出る、隠せる</t>
-    <rPh sb="6" eb="8">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タシャ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューアイコン（ユーザー管理権限のあるアカウントのみ）</t>
     <rPh sb="13" eb="15">
       <t>カンリ</t>
@@ -2709,6 +2602,172 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コメントが501文字以上</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※10文字以下で入力してください</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点線部分</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>コメントが全部表示、他者のコメントの上にコメント入力欄が出る、隠せる</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>テンセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タシャ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜前へ</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へ＞</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前10件と次10件に遷移できるリンク</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→前のページがないときは&lt;前へが消える</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→次のページがないときは次へ&gt;が消える</t>
+    <rPh sb="1" eb="2">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2717,7 +2776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2831,6 +2890,13 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -3228,7 +3294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3458,6 +3524,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3814,6 +3895,67 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438239</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447183</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125211</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438239" y="4203521"/>
+          <a:ext cx="4641761" cy="2566831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4178,38 +4320,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -4257,10 +4399,10 @@
       <c r="L5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="M5" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="99"/>
+      <c r="N5" s="104"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="18"/>
@@ -4278,10 +4420,10 @@
       <c r="L6" s="10">
         <v>3</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="M6" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="99"/>
+      <c r="N6" s="104"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -4297,7 +4439,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="M7" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="N7" s="18"/>
     </row>
@@ -4305,16 +4447,16 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="M8" s="30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -4325,14 +4467,14 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="M9" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="N9" s="18"/>
       <c r="Q9" s="30"/>
@@ -4366,26 +4508,26 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="M11" s="18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79">
+      <c r="B12" s="83"/>
+      <c r="C12" s="84">
         <v>1</v>
       </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="9"/>
       <c r="I12" s="3"/>
       <c r="M12" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -4402,26 +4544,26 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="M13" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="82">
+      <c r="B14" s="83"/>
+      <c r="C14" s="87">
         <v>2</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="84"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="9"/>
       <c r="I14" s="3"/>
       <c r="M14" s="67" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="N14" s="18"/>
       <c r="Q14" s="30"/>
@@ -4437,20 +4579,20 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="M15" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="98" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
+      <c r="C16" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
       <c r="H16" s="9"/>
       <c r="I16" s="3"/>
       <c r="M16" s="30" t="s">
@@ -4470,7 +4612,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="M17" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N17" s="18"/>
     </row>
@@ -4478,18 +4620,18 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="97">
+      <c r="E18" s="97"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="102">
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="M18" s="67" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N18" s="18"/>
       <c r="Q18" s="42"/>
@@ -4498,14 +4640,14 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="97"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="M19" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -4519,7 +4661,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="M20" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -4782,24 +4924,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScale="71" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="101" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="106" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="71"/>
@@ -4811,17 +4953,17 @@
       <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="102"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="107"/>
       <c r="K2" s="69" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P2" s="70"/>
       <c r="Q2" s="70"/>
@@ -4840,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="18"/>
@@ -4849,18 +4991,18 @@
       <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="37"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="112" t="s">
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="113"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="3"/>
       <c r="L4" s="47" t="s">
         <v>57</v>
@@ -4878,12 +5020,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="3"/>
       <c r="K5" s="70"/>
       <c r="L5" s="71" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M5" s="71"/>
       <c r="N5" s="71"/>
@@ -4916,18 +5058,18 @@
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="79">
+      <c r="B7" s="84">
         <v>3</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="79">
+      <c r="C7" s="86"/>
+      <c r="D7" s="84">
         <v>4</v>
       </c>
-      <c r="E7" s="80"/>
-      <c r="F7" s="110" t="s">
+      <c r="E7" s="85"/>
+      <c r="F7" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="116"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
@@ -4941,10 +5083,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="134" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="134"/>
+      <c r="D8" s="139" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="139"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -4981,10 +5123,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="133"/>
+      <c r="B10" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="138"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4993,26 +5135,26 @@
       <c r="I10" s="3"/>
       <c r="K10" s="70"/>
       <c r="L10" s="18" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="117" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="L11" s="18" t="s">
@@ -5022,14 +5164,14 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
@@ -5040,12 +5182,12 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
@@ -5056,12 +5198,12 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="L14" s="18" t="s">
@@ -5072,12 +5214,12 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
@@ -5088,12 +5230,12 @@
     </row>
     <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="L16" s="18" t="s">
@@ -5104,16 +5246,16 @@
     </row>
     <row r="17" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="130" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="131"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="135" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="136"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="L17" s="18" t="s">
@@ -5140,16 +5282,16 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="133"/>
-      <c r="D19" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="B19" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="138"/>
+      <c r="D19" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="L19" s="18" t="s">
@@ -5160,13 +5302,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
@@ -5180,11 +5322,11 @@
     </row>
     <row r="21" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="1"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -5196,18 +5338,18 @@
     </row>
     <row r="22" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="L22" s="18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5221,15 +5363,15 @@
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="L23" s="13" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="133"/>
+      <c r="B24" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="138"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -5247,14 +5389,14 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="136"/>
+      <c r="B25" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="10">
@@ -5267,19 +5409,19 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="139"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="50"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10">
         <v>7</v>
       </c>
       <c r="L26" s="47" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M26" s="47"/>
       <c r="N26" s="18"/>
@@ -5287,16 +5429,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="142"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="L27" s="47" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
@@ -5304,14 +5446,14 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="143"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
       <c r="K28" s="10">
@@ -5334,17 +5476,17 @@
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="L29" s="18" t="s">
-        <v>108</v>
+        <v>225</v>
       </c>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-      <c r="B30" s="132" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="133"/>
+      <c r="B30" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="138"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5353,23 +5495,23 @@
       <c r="I30" s="3"/>
       <c r="K30" s="10"/>
       <c r="L30" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="117" t="s">
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="118"/>
-      <c r="G31" s="119"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="124"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="L31" s="18" t="s">
@@ -5380,28 +5522,28 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="L32" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="125"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="K33" s="10">
@@ -5415,28 +5557,28 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="125"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
       <c r="L34" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="125"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="K35" s="10">
@@ -5450,30 +5592,30 @@
     </row>
     <row r="36" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="1"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="125"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="L36" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="130" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="131"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="136"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
       <c r="K37" s="10">
@@ -5494,17 +5636,30 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
+      <c r="K38" s="10">
+        <v>12</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="D39" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="77">
+        <v>12</v>
+      </c>
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
+      <c r="L39" s="18" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
@@ -5516,6 +5671,9 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
+      <c r="L40" s="18" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
@@ -6450,36 +6608,36 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="101" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="106" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="102"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="46"/>
@@ -6491,33 +6649,33 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="144"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="149"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="104"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="37"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="112" t="s">
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="113"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="145"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="150"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -6530,17 +6688,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="115"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="L5" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6558,31 +6716,31 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="110" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="111"/>
+      <c r="G7" s="116"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6596,13 +6754,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6625,10 +6783,10 @@
     </row>
     <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
-      <c r="B10" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="143"/>
+      <c r="B10" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="148"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6636,29 +6794,29 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="130" t="s">
+      <c r="L10" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="131"/>
+      <c r="M10" s="136"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="147" t="s">
+      <c r="O10" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="148"/>
+      <c r="P10" s="153"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="117" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
@@ -6671,32 +6829,32 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="130"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="105" t="s">
+      <c r="K13" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="144"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="149"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -6704,17 +6862,17 @@
     </row>
     <row r="14" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="130"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="145"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="150"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6722,62 +6880,62 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
+      <c r="L15" s="82" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="130" t="s">
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="131"/>
+      <c r="G17" s="136"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6791,21 +6949,21 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="77" t="s">
+      <c r="L18" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
-      <c r="B19" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="143"/>
+      <c r="B19" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="148"/>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6822,37 +6980,37 @@
     </row>
     <row r="20" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="130" t="s">
+      <c r="L20" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="131"/>
+      <c r="M20" s="136"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="147" t="s">
+      <c r="O20" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="P20" s="148"/>
+      <c r="P20" s="153"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -6866,11 +7024,11 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="38"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
@@ -6888,10 +7046,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="143"/>
+      <c r="B24" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="148"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -6909,14 +7067,14 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="136"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="18"/>
@@ -6928,12 +7086,12 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="139"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10">
@@ -6947,12 +7105,12 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="142"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="K27" s="13"/>
@@ -6964,14 +7122,14 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="143"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
     </row>
@@ -6999,10 +7157,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="C31" s="143"/>
+      <c r="B31" s="133" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="148"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -7012,88 +7170,88 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="117" t="s">
+      <c r="C32" s="123"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="124"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="125"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="130"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="125"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="130"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="125"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="130"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="125"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="147" t="s">
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="148"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
     </row>
@@ -7109,26 +7267,30 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="81"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
@@ -8017,11 +8179,14 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B24:C24"/>
+    <mergeCell ref="K13:M14"/>
     <mergeCell ref="E32:G32"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="L8:P8"/>
@@ -8038,15 +8203,12 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="K3:M4"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="K3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8059,38 +8221,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="I16" zoomScale="84" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87"/>
+      <c r="A1" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="92"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="95"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -8110,11 +8272,11 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="103" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
+      <c r="A4" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -8124,13 +8286,13 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
+      <c r="L4" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
@@ -8149,11 +8311,11 @@
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
+      <c r="L5" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -8168,16 +8330,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="159" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="155"/>
+      <c r="H6" s="160"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>3</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -8190,10 +8352,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
-      <c r="B7" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="143"/>
+      <c r="B7" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="148"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -8202,7 +8364,7 @@
       <c r="I7" s="3"/>
       <c r="K7" s="10"/>
       <c r="L7" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -8215,23 +8377,23 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="151" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="152"/>
-      <c r="H8" s="153"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="158"/>
       <c r="I8" s="3"/>
       <c r="K8" s="10">
         <v>4</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -8244,43 +8406,43 @@
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="130"/>
       <c r="I10" s="3"/>
       <c r="L10" s="18" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="130"/>
       <c r="I11" s="3"/>
       <c r="K11" s="10">
         <v>5</v>
@@ -8293,30 +8455,30 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="130"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="149"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="154"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
@@ -8340,17 +8502,17 @@
       <c r="K14" s="10">
         <v>6</v>
       </c>
-      <c r="L14" s="150" t="s">
-        <v>220</v>
-      </c>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
+      <c r="L14" s="155" t="s">
+        <v>215</v>
+      </c>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
     </row>
     <row r="15" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
@@ -8363,7 +8525,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="3"/>
       <c r="L15" s="76" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -8379,7 +8541,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="3"/>
       <c r="L16" s="76" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -8395,10 +8557,10 @@
       <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="150" t="s">
+      <c r="L17" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="M17" s="150"/>
+      <c r="M17" s="155"/>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
@@ -8418,18 +8580,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="150" t="s">
-        <v>158</v>
-      </c>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="150"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="150"/>
-      <c r="S18" s="150"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="150"/>
+      <c r="L18" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
@@ -8572,7 +8734,7 @@
       <c r="S25" s="51"/>
       <c r="T25" s="51"/>
     </row>
-    <row r="26" spans="1:21" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8583,7 +8745,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="51" t="s">
+      <c r="L26" s="78" t="s">
         <v>96</v>
       </c>
       <c r="M26" s="51"/>
@@ -8836,17 +8998,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="156" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="158"/>
+      <c r="A1" s="161" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="163"/>
       <c r="K1" s="44"/>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -8862,20 +9024,20 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="161"/>
-      <c r="K2" s="105" t="s">
-        <v>178</v>
-      </c>
-      <c r="L2" s="106"/>
-      <c r="M2" s="144"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="166"/>
+      <c r="K2" s="110" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="111"/>
+      <c r="M2" s="149"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -8897,28 +9059,28 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="35"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="145"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="150"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="103" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="130" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="131"/>
+      <c r="A4" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="167"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="62"/>
       <c r="H4" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I4" s="58"/>
       <c r="K4" s="1"/>
@@ -8940,13 +9102,13 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="L5" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="18"/>
     </row>
@@ -8961,60 +9123,60 @@
       <c r="H6" s="39"/>
       <c r="I6" s="58"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>113</v>
-      </c>
       <c r="C7" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="G7" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="H7" s="75" t="s">
         <v>172</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>175</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="73">
         <v>1546</v>
@@ -9023,10 +9185,10 @@
         <v>461</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
@@ -9039,16 +9201,16 @@
     </row>
     <row r="9" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="43">
         <v>1567</v>
@@ -9057,36 +9219,36 @@
         <v>672</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="130" t="s">
+      <c r="L9" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="131"/>
+      <c r="M9" s="136"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="147" t="s">
+      <c r="O9" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="148"/>
+      <c r="P9" s="153"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="68" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="43">
         <v>1578</v>
@@ -9095,10 +9257,10 @@
         <v>781</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
@@ -9136,11 +9298,11 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="58"/>
-      <c r="K12" s="105" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="106"/>
-      <c r="M12" s="144"/>
+      <c r="K12" s="110" t="s">
+        <v>176</v>
+      </c>
+      <c r="L12" s="111"/>
+      <c r="M12" s="149"/>
       <c r="N12" s="46"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -9157,9 +9319,9 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="58"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="145"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="150"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -9193,13 +9355,13 @@
       <c r="H15" s="39"/>
       <c r="I15" s="58"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
+      <c r="L15" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -9213,11 +9375,11 @@
       <c r="H16" s="39"/>
       <c r="I16" s="58"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9231,11 +9393,11 @@
       <c r="H17" s="39"/>
       <c r="I17" s="58"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -9267,15 +9429,15 @@
       <c r="H19" s="39"/>
       <c r="I19" s="58"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="130" t="s">
+      <c r="L19" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="M19" s="131"/>
+      <c r="M19" s="136"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="147" t="s">
+      <c r="O19" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="148"/>
+      <c r="P19" s="153"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9332,7 +9494,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9349,7 +9511,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9366,7 +9528,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9383,7 +9545,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9397,7 +9559,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="58"/>
       <c r="L27" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9411,7 +9573,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="58"/>
       <c r="L28" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9425,10 +9587,10 @@
       <c r="H29" s="39"/>
       <c r="I29" s="58"/>
       <c r="K29" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9445,7 +9607,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9462,7 +9624,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9479,7 +9641,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9493,7 +9655,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="58"/>
       <c r="L33" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9510,7 +9672,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9525,7 +9687,7 @@
       <c r="I35" s="58"/>
       <c r="K35" s="10"/>
       <c r="L35" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9606,8 +9768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" zoomScale="73" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9616,28 +9778,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="165"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="I1" s="170"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="166"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="46"/>
@@ -9687,13 +9849,13 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26"/>
       <c r="B6" s="53"/>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="39"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
@@ -9706,15 +9868,15 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
       <c r="B7" s="53"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
       <c r="H7" s="39"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9728,7 +9890,7 @@
       <c r="H8" s="39"/>
       <c r="I8" s="3"/>
       <c r="L8" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9744,7 +9906,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P9" s="18"/>
     </row>
@@ -9752,16 +9914,16 @@
       <c r="A10" s="26"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="169" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
+      <c r="D10" s="174" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
       <c r="I10" s="3"/>
       <c r="L10" s="67" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -9777,7 +9939,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -9797,7 +9959,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="18"/>
       <c r="L12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -9808,7 +9970,7 @@
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
@@ -9817,7 +9979,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9832,7 +9994,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="18"/>
       <c r="L14" s="67" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9849,7 +10011,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -9889,7 +10051,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="18"/>
       <c r="L17" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -9907,7 +10069,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="18"/>
       <c r="L18" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O18" s="18"/>
       <c r="S18" s="18"/>
@@ -9928,7 +10090,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -9953,7 +10115,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="18"/>
       <c r="L20" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -9971,7 +10133,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="18"/>
       <c r="L21" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M21" s="18"/>
     </row>
@@ -9989,7 +10151,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="18"/>
       <c r="L22" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M22" s="18"/>
     </row>
@@ -10013,17 +10175,17 @@
       <c r="A24" s="26"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+      <c r="D24" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="3"/>
       <c r="J24" s="18"/>
       <c r="L24" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M24" s="18"/>
     </row>
@@ -10040,7 +10202,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -10058,7 +10220,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="18"/>
       <c r="L26" s="13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -10069,11 +10231,11 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="21" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G27" s="31">
         <v>1</v>
@@ -10245,8 +10407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10255,28 +10417,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="177"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="175"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="179"/>
+      <c r="I2" s="180"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="46"/>
@@ -10301,13 +10463,13 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="K4" s="10">
@@ -10325,11 +10487,11 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
@@ -10352,7 +10514,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="57"/>
       <c r="L6" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -10372,7 +10534,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -10380,7 +10542,7 @@
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
@@ -10388,7 +10550,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="3"/>
       <c r="L8" s="67" t="s">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="18"/>
     </row>
@@ -10403,7 +10565,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -10421,7 +10583,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="3"/>
       <c r="L10" s="67" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -10457,7 +10619,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -10497,7 +10659,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="3"/>
       <c r="L14" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -10518,7 +10680,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -10535,7 +10697,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="3"/>
       <c r="L16" s="67" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -10569,7 +10731,7 @@
       <c r="B18" s="53"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -10597,7 +10759,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
@@ -10616,7 +10778,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="3"/>
       <c r="L20" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>

--- a/AppTec/practice/TeamA/view.xlsx
+++ b/AppTec/practice/TeamA/view.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="230">
   <si>
     <t>掲示板システム</t>
     <rPh sb="0" eb="3">
@@ -67,13 +67,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※パスワードを入力してください</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -236,36 +229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・1時間以内</t>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・12時間以内</t>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・24時間以内</t>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・3日以内</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -312,16 +275,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・それ以上前</t>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -490,10 +443,6 @@
     <rPh sb="7" eb="8">
       <t>ラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメントする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1277,13 +1226,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>停止しますか？</t>
-    <rPh sb="0" eb="2">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>編集画面へ遷移するボタン</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
@@ -1711,10 +1653,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">コメントする </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -2194,19 +2132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※そのアカウント名は既に登録されています</t>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※そのユーザーはすでに登録されています</t>
     <rPh sb="11" eb="13">
       <t>トウロク</t>
@@ -2238,19 +2163,6 @@
     <t>・アカウントが未入力</t>
     <rPh sb="7" eb="10">
       <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・アカウントの入力方法が間違っている</t>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>マチガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2389,62 +2301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※6文字以上20文字以下の記号を含む半角文字で入力してください</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※6文字以上20文字以下半角英数字で入力してください</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>30文字以下</t>
   </si>
   <si>
@@ -2517,35 +2373,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※500文字以内で入力してください</t>
-    <rPh sb="4" eb="6">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※10文字以下で入力してください</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期の表示件数は最大10件とする</t>
     <rPh sb="0" eb="2">
       <t>ショキ</t>
@@ -2612,19 +2439,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※10文字以下で入力してください</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2768,6 +2582,162 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記号はアンダースコアだけ使用可能</t>
+    <rPh sb="0" eb="2">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※アカウントを6文字以上20文字以下半角英数字で入力してください</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※パスワードを6文字以上20文字以下の記号を含む半角文字で入力してください</t>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※名称を10文字以下で入力してください</t>
+    <rPh sb="1" eb="3">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※カテゴリーは10文字以下で入力してください</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※本文は500文字以内で入力してください</t>
+    <rPh sb="1" eb="3">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※そのアカウントは既に登録されています</t>
+    <rPh sb="9" eb="10">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止させますか？</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1日以内</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イナイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3294,7 +3264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3539,6 +3509,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4320,38 +4293,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -4399,10 +4372,10 @@
       <c r="L5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="104"/>
+      <c r="N5" s="105"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="18"/>
@@ -4420,10 +4393,10 @@
       <c r="L6" s="10">
         <v>3</v>
       </c>
-      <c r="M6" s="104" t="s">
+      <c r="M6" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="104"/>
+      <c r="N6" s="105"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -4439,7 +4412,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="M7" s="18" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="N7" s="18"/>
     </row>
@@ -4447,16 +4420,16 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="M8" s="30" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -4467,14 +4440,14 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="M9" s="18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N9" s="18"/>
       <c r="Q9" s="30"/>
@@ -4508,26 +4481,26 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="M11" s="18" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84">
+      <c r="A12" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85">
         <v>1</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="9"/>
       <c r="I12" s="3"/>
-      <c r="M12" s="30" t="s">
-        <v>146</v>
+      <c r="M12" s="67" t="s">
+        <v>220</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -4544,29 +4517,29 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="M13" s="18" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="87">
+      <c r="A14" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="84"/>
+      <c r="C14" s="88">
         <v>2</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="9"/>
       <c r="I14" s="3"/>
       <c r="M14" s="67" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="N14" s="18"/>
-      <c r="Q14" s="30"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
@@ -4579,28 +4552,25 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="M15" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="N15" s="18"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="103" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
+      <c r="C16" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
       <c r="H16" s="9"/>
       <c r="I16" s="3"/>
-      <c r="M16" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="M16" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
@@ -4611,45 +4581,51 @@
       <c r="F17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
-      <c r="M17" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="N17" s="18"/>
+      <c r="M17" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="102">
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="103">
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
-      <c r="M18" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="N18" s="18"/>
-      <c r="Q18" s="42"/>
+      <c r="L18" s="10">
+        <v>4</v>
+      </c>
+      <c r="M18" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="32"/>
+      <c r="O18" s="18"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="M19" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="N19" s="18"/>
+        <v>100</v>
+      </c>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
@@ -4660,12 +4636,6 @@
       <c r="F20" s="7"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
-      <c r="M20" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
@@ -4677,15 +4647,6 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
-      <c r="L21" s="10">
-        <v>4</v>
-      </c>
-      <c r="M21" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="N21" s="32"/>
-      <c r="O21" s="18"/>
-      <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
@@ -4697,10 +4658,6 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
-      <c r="M22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
@@ -4924,25 +4881,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="71" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="106" t="s">
-        <v>10</v>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="107" t="s">
+        <v>9</v>
       </c>
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
@@ -4953,17 +4910,17 @@
       <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="107"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="108"/>
       <c r="K2" s="69" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="P2" s="70"/>
       <c r="Q2" s="70"/>
@@ -4982,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="18"/>
@@ -4991,21 +4948,21 @@
       <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="109"/>
+      <c r="A4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="110"/>
       <c r="C4" s="37"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="118"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="118" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="119"/>
       <c r="I4" s="3"/>
       <c r="L4" s="47" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
@@ -5020,12 +4977,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="121"/>
       <c r="I5" s="3"/>
       <c r="K5" s="70"/>
       <c r="L5" s="71" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M5" s="71"/>
       <c r="N5" s="71"/>
@@ -5035,11 +4992,11 @@
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="54"/>
@@ -5050,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -5058,22 +5015,22 @@
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="84">
+      <c r="B7" s="85">
         <v>3</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="84">
+      <c r="C7" s="87"/>
+      <c r="D7" s="85">
         <v>4</v>
       </c>
-      <c r="E7" s="85"/>
-      <c r="F7" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="116"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="117"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -5083,10 +5040,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="139" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="139"/>
+      <c r="D8" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="140"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5095,7 +5052,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="19"/>
       <c r="P8" s="71"/>
@@ -5113,7 +5070,7 @@
       <c r="I9" s="3"/>
       <c r="K9" s="70"/>
       <c r="L9" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" s="71"/>
       <c r="N9" s="70"/>
@@ -5123,10 +5080,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="138"/>
+      <c r="B10" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="139"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5135,134 +5092,136 @@
       <c r="I10" s="3"/>
       <c r="K10" s="70"/>
       <c r="L10" s="18" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="L11" s="18" t="s">
-        <v>23</v>
+        <v>229</v>
       </c>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127"/>
+      <c r="B12" s="126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="L14" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="130"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="131"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="L16" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
-      <c r="B17" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="135" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="136"/>
+      <c r="B17" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="136" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="137"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
-      <c r="L17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="K17" s="10">
+        <v>4</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
@@ -5275,61 +5234,56 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="L18" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
+      <c r="B19" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="139"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="L19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+        <v>209</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="110" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="B20" s="111" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
-      <c r="K20" s="10">
-        <v>4</v>
-      </c>
-      <c r="L20" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="47"/>
+      <c r="L20" s="13" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="1"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
+      <c r="K21" s="10">
+        <v>5</v>
+      </c>
       <c r="L21" s="18" t="s">
         <v>33</v>
       </c>
@@ -5338,131 +5292,135 @@
     </row>
     <row r="22" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
-      <c r="L22" s="18" t="s">
-        <v>223</v>
-      </c>
+      <c r="K22" s="10">
+        <v>6</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="54"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="D23" s="140" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
-      <c r="L23" s="13" t="s">
-        <v>221</v>
-      </c>
+      <c r="K23" s="10">
+        <v>7</v>
+      </c>
+      <c r="L23" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" s="47"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="138"/>
+      <c r="B24" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="139"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="K24" s="10">
-        <v>5</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
+      <c r="L24" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="110" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
+      <c r="B25" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="10">
-        <v>6</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="47"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="50"/>
       <c r="I26" s="3"/>
-      <c r="K26" s="10">
-        <v>7</v>
-      </c>
-      <c r="L26" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="M26" s="47"/>
+      <c r="L26" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
-      <c r="L27" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="14"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
-      <c r="K28" s="10">
-        <v>8</v>
-      </c>
-      <c r="L28" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="47"/>
+      <c r="L28" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="18"/>
       <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -5475,158 +5433,154 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
-      <c r="L29" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="L29" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-      <c r="B30" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="138"/>
+      <c r="B30" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="139"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="13" t="s">
-        <v>220</v>
+      <c r="K30" s="10">
+        <v>9</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="123"/>
-      <c r="G31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="125"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="L31" s="18" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="127"/>
+      <c r="B32" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="128"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
-      <c r="L32" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="K32" s="10">
+        <v>10</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="131"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
-      <c r="K33" s="10">
-        <v>9</v>
-      </c>
       <c r="L33" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="131"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
+      <c r="K34" s="10">
+        <v>11</v>
+      </c>
       <c r="L34" s="18" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="131"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="K35" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A36" s="1"/>
-      <c r="B36" s="131"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
+      <c r="B36" s="132"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="131"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="L36" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="135" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" s="136"/>
+      <c r="B37" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="136" t="s">
+        <v>225</v>
+      </c>
+      <c r="G37" s="137"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
-      <c r="K37" s="10">
-        <v>11</v>
-      </c>
       <c r="L37" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="18"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5636,32 +5590,23 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
-      <c r="K38" s="10">
-        <v>12</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="39" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F39" s="77">
         <v>12</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
-      <c r="L39" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5671,11 +5616,8 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
-      <c r="L40" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -5686,7 +5628,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -5697,7 +5639,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -5708,7 +5650,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -5719,7 +5661,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -5730,7 +5672,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -5741,7 +5683,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -5752,7 +5694,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -6571,7 +6513,7 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D23:G23"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:G27"/>
@@ -6607,37 +6549,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView topLeftCell="A25" zoomScale="72" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="106" t="s">
-        <v>9</v>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="107" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="107"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="108"/>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="46"/>
@@ -6649,33 +6591,33 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="149"/>
+      <c r="K3" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="112"/>
+      <c r="M3" s="150"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="108" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="109"/>
+      <c r="A4" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="110"/>
       <c r="C4" s="37"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="118"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="118" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="119"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="150"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="151"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -6688,27 +6630,27 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="121"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
+      <c r="L5" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="54"/>
@@ -6716,31 +6658,31 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="116"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="117"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6754,13 +6696,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
+      <c r="L8" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6783,10 +6725,10 @@
     </row>
     <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
-      <c r="B10" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="148"/>
+      <c r="B10" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="149"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6794,29 +6736,29 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="136"/>
+      <c r="L10" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="137"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="153"/>
+      <c r="O10" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="154"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="124"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
@@ -6829,32 +6771,32 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127"/>
+      <c r="B12" s="126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="149"/>
+      <c r="K13" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="112"/>
+      <c r="M13" s="150"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -6862,17 +6804,17 @@
     </row>
     <row r="14" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="150"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="151"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6880,62 +6822,62 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="130"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="131"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
+      <c r="L15" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="130"/>
+      <c r="B16" s="132"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="1"/>
-      <c r="B17" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="136"/>
+      <c r="B17" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="137"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6949,21 +6891,21 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
+      <c r="L18" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
-      <c r="B19" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="148"/>
+      <c r="B19" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="149"/>
       <c r="D19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6980,37 +6922,37 @@
     </row>
     <row r="20" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
+      <c r="B20" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="136"/>
+      <c r="L20" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="137"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="153"/>
+      <c r="O20" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="154"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -7024,11 +6966,11 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="38"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
@@ -7046,10 +6988,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="148"/>
+      <c r="B24" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="149"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55"/>
@@ -7060,76 +7002,76 @@
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="110" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
+      <c r="B25" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="145"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10">
         <v>2</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="K27" s="13"/>
       <c r="L27" s="18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="134"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="149"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
     </row>
@@ -7157,10 +7099,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="148"/>
+      <c r="B31" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="149"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -7170,88 +7112,90 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="124"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="123"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="123"/>
-      <c r="G32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="125"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="127"/>
+      <c r="B33" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="130"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="131"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="130"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="131"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="130"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="131"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="130"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="131"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
-      <c r="B38" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="153"/>
+      <c r="B38" s="134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
     </row>
@@ -7271,10 +7215,10 @@
       <c r="B40" s="80"/>
       <c r="C40" s="80"/>
       <c r="D40" s="39" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F40" s="80"/>
       <c r="G40" s="80"/>
@@ -8173,14 +8117,13 @@
       <c r="I121" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="34">
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="L5:P7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="K13:M14"/>
-    <mergeCell ref="E32:G32"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="B11:D11"/>
@@ -8188,7 +8131,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:G38"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="B25:G27"/>
     <mergeCell ref="B28:G28"/>
@@ -8203,6 +8145,7 @@
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -8221,38 +8164,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="84" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="92"/>
+      <c r="A1" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="95"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="96"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -8272,11 +8215,11 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="108" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
+      <c r="A4" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
@@ -8286,13 +8229,13 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
+      <c r="L4" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
@@ -8311,11 +8254,11 @@
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
+      <c r="L5" s="105" t="s">
+        <v>206</v>
+      </c>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -8330,16 +8273,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="159" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="160"/>
+      <c r="G6" s="160" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="161"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>3</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -8352,10 +8295,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
-      <c r="B7" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="148"/>
+      <c r="B7" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="149"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -8364,7 +8307,7 @@
       <c r="I7" s="3"/>
       <c r="K7" s="10"/>
       <c r="L7" s="19" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -8377,23 +8320,23 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
-      <c r="B8" s="122" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="157"/>
-      <c r="H8" s="158"/>
+      <c r="B8" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="157" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="158"/>
+      <c r="H8" s="159"/>
       <c r="I8" s="3"/>
       <c r="K8" s="10">
         <v>4</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -8406,79 +8349,79 @@
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
-      <c r="B9" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
+      <c r="B9" s="126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="128"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="130"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
       <c r="I10" s="3"/>
       <c r="L10" s="18" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="130"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="131"/>
       <c r="I11" s="3"/>
       <c r="K11" s="10">
         <v>5</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="130"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="154"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="155"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
@@ -8490,7 +8433,7 @@
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26"/>
       <c r="B14" s="61" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="39"/>
@@ -8502,17 +8445,17 @@
       <c r="K14" s="10">
         <v>6</v>
       </c>
-      <c r="L14" s="155" t="s">
-        <v>215</v>
-      </c>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
+      <c r="L14" s="156" t="s">
+        <v>203</v>
+      </c>
+      <c r="M14" s="156"/>
+      <c r="N14" s="156"/>
+      <c r="O14" s="156"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="156"/>
+      <c r="R14" s="156"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
     </row>
     <row r="15" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
@@ -8525,7 +8468,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="3"/>
       <c r="L15" s="76" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -8536,12 +8479,12 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="3"/>
       <c r="L16" s="76" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -8557,10 +8500,10 @@
       <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="155" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="155"/>
+      <c r="L17" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" s="156"/>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="41"/>
@@ -8580,18 +8523,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="155" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
+      <c r="L18" s="156" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="156"/>
+      <c r="N18" s="156"/>
+      <c r="O18" s="156"/>
+      <c r="P18" s="156"/>
+      <c r="Q18" s="156"/>
+      <c r="R18" s="156"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
@@ -8607,7 +8550,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -8625,7 +8568,7 @@
       <c r="I20" s="3"/>
       <c r="K20" s="10"/>
       <c r="L20" s="51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
@@ -8643,7 +8586,7 @@
       <c r="I21" s="3"/>
       <c r="K21" s="10"/>
       <c r="L21" s="13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
@@ -8665,7 +8608,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="L22" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -8684,7 +8627,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="L23" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P23" s="51"/>
       <c r="Q23" s="51"/>
@@ -8703,7 +8646,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="L24" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
@@ -8723,7 +8666,7 @@
       <c r="I25" s="3"/>
       <c r="K25" s="10"/>
       <c r="L25" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M25" s="41"/>
       <c r="N25" s="41"/>
@@ -8746,7 +8689,7 @@
       <c r="I26" s="3"/>
       <c r="K26" s="10"/>
       <c r="L26" s="78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="41"/>
@@ -8769,7 +8712,7 @@
       <c r="I27" s="3"/>
       <c r="K27" s="10"/>
       <c r="L27" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M27" s="51"/>
       <c r="N27" s="51"/>
@@ -8792,7 +8735,7 @@
       <c r="I28" s="3"/>
       <c r="K28" s="10"/>
       <c r="L28" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M28" s="51"/>
       <c r="N28" s="51"/>
@@ -8815,7 +8758,7 @@
       <c r="I29" s="3"/>
       <c r="K29" s="10"/>
       <c r="L29" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M29" s="51"/>
       <c r="N29" s="51"/>
@@ -8833,7 +8776,7 @@
       <c r="I30" s="3"/>
       <c r="K30" s="10"/>
       <c r="L30" s="47" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M30" s="51"/>
       <c r="N30" s="51"/>
@@ -8851,7 +8794,7 @@
       <c r="I31" s="3"/>
       <c r="K31" s="10"/>
       <c r="L31" s="30" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M31" s="52"/>
       <c r="N31" s="52"/>
@@ -8871,7 +8814,7 @@
         <v>9</v>
       </c>
       <c r="L32" s="47" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
@@ -8888,7 +8831,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="L33" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8982,8 +8925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A14" zoomScale="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8998,17 +8941,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="161" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="163"/>
+      <c r="A1" s="162" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="164"/>
       <c r="K1" s="44"/>
       <c r="L1" s="45"/>
       <c r="M1" s="45"/>
@@ -9024,20 +8967,20 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="164"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="166"/>
-      <c r="K2" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="111"/>
-      <c r="M2" s="149"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="167"/>
+      <c r="K2" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="112"/>
+      <c r="M2" s="150"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -9059,28 +9002,28 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="35"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="150"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="135" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="136"/>
+      <c r="A4" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="168"/>
+      <c r="F4" s="137"/>
       <c r="G4" s="62"/>
       <c r="H4" s="21" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I4" s="58"/>
       <c r="K4" s="1"/>
@@ -9102,13 +9045,13 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
+      <c r="L5" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="18"/>
     </row>
@@ -9123,60 +9066,60 @@
       <c r="H6" s="39"/>
       <c r="I6" s="58"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="74" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E7" s="75" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F7" s="75" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G7" s="75" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="72" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8" s="73">
         <v>1546</v>
@@ -9185,10 +9128,10 @@
         <v>461</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
@@ -9201,16 +9144,16 @@
     </row>
     <row r="9" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E9" s="43">
         <v>1567</v>
@@ -9219,36 +9162,36 @@
         <v>672</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="136"/>
+      <c r="L9" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="137"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="153"/>
+      <c r="O9" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="154"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>114</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>120</v>
       </c>
       <c r="E10" s="43">
         <v>1578</v>
@@ -9257,10 +9200,10 @@
         <v>781</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
@@ -9298,11 +9241,11 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="58"/>
-      <c r="K12" s="110" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="111"/>
-      <c r="M12" s="149"/>
+      <c r="K12" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="112"/>
+      <c r="M12" s="150"/>
       <c r="N12" s="46"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -9319,9 +9262,9 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
       <c r="I13" s="58"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="150"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="151"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -9355,13 +9298,13 @@
       <c r="H15" s="39"/>
       <c r="I15" s="58"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
+      <c r="L15" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -9375,11 +9318,11 @@
       <c r="H16" s="39"/>
       <c r="I16" s="58"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9393,11 +9336,11 @@
       <c r="H17" s="39"/>
       <c r="I17" s="58"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -9429,15 +9372,15 @@
       <c r="H19" s="39"/>
       <c r="I19" s="58"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="136"/>
+      <c r="L19" s="136" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="137"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="153"/>
+      <c r="O19" s="153" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="154"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9494,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9511,7 +9454,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9528,7 +9471,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9545,7 +9488,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9559,7 +9502,7 @@
       <c r="H27" s="39"/>
       <c r="I27" s="58"/>
       <c r="L27" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9573,7 +9516,7 @@
       <c r="H28" s="39"/>
       <c r="I28" s="58"/>
       <c r="L28" s="18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9587,10 +9530,10 @@
       <c r="H29" s="39"/>
       <c r="I29" s="58"/>
       <c r="K29" s="10" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9607,7 +9550,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9624,7 +9567,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9641,7 +9584,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9655,7 +9598,7 @@
       <c r="H33" s="39"/>
       <c r="I33" s="58"/>
       <c r="L33" s="18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9672,7 +9615,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9687,7 +9630,7 @@
       <c r="I35" s="58"/>
       <c r="K35" s="10"/>
       <c r="L35" s="18" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9768,8 +9711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A4" zoomScale="73" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9778,28 +9721,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="170"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="171"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="171"/>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="174"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="46"/>
@@ -9826,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -9842,41 +9785,41 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26"/>
       <c r="B6" s="53"/>
-      <c r="C6" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
+      <c r="C6" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
       <c r="H6" s="39"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>2</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
       <c r="B7" s="53"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
       <c r="H7" s="39"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9890,14 +9833,14 @@
       <c r="H8" s="39"/>
       <c r="I8" s="3"/>
       <c r="L8" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
       <c r="B9" s="39"/>
       <c r="C9" s="22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
@@ -9906,7 +9849,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P9" s="18"/>
     </row>
@@ -9914,16 +9857,16 @@
       <c r="A10" s="26"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="174" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
+      <c r="D10" s="175" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
       <c r="I10" s="3"/>
       <c r="L10" s="67" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -9939,7 +9882,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -9949,7 +9892,7 @@
       <c r="A12" s="26"/>
       <c r="B12" s="33"/>
       <c r="C12" s="22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
@@ -9959,7 +9902,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="18"/>
       <c r="L12" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -9970,7 +9913,7 @@
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="53" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
@@ -9979,7 +9922,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9994,14 +9937,14 @@
       <c r="I14" s="3"/>
       <c r="J14" s="18"/>
       <c r="L14" s="67" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26"/>
       <c r="B15" s="39"/>
       <c r="C15" s="22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
@@ -10011,7 +9954,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -10030,7 +9973,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="18"/>
       <c r="L16" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -10041,7 +9984,7 @@
       <c r="A17" s="26"/>
       <c r="B17" s="39"/>
       <c r="C17" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -10051,7 +9994,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="18"/>
       <c r="L17" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -10060,7 +10003,7 @@
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -10069,7 +10012,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="18"/>
       <c r="L18" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="O18" s="18"/>
       <c r="S18" s="18"/>
@@ -10090,7 +10033,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -10105,7 +10048,7 @@
       <c r="A20" s="26"/>
       <c r="B20" s="39"/>
       <c r="C20" s="22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
@@ -10115,7 +10058,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="18"/>
       <c r="L20" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -10133,7 +10076,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="18"/>
       <c r="L21" s="18" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M21" s="18"/>
     </row>
@@ -10141,7 +10084,7 @@
       <c r="A22" s="26"/>
       <c r="B22" s="39"/>
       <c r="C22" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -10151,7 +10094,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="18"/>
       <c r="L22" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M22" s="18"/>
     </row>
@@ -10167,7 +10110,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="18"/>
       <c r="L23" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M23" s="18"/>
     </row>
@@ -10175,17 +10118,17 @@
       <c r="A24" s="26"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
-      <c r="D24" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
+      <c r="D24" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
       <c r="I24" s="3"/>
       <c r="J24" s="18"/>
       <c r="L24" s="13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M24" s="18"/>
     </row>
@@ -10202,7 +10145,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -10220,7 +10163,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="18"/>
       <c r="L26" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -10231,11 +10174,11 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E27" s="53"/>
       <c r="F27" s="21" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G27" s="31">
         <v>1</v>
@@ -10407,8 +10350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10417,28 +10360,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="177"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="178"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="178"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="180"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="181"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="46"/>
@@ -10451,7 +10394,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
       <c r="K3" s="69" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -10463,20 +10406,20 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="109" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="K4" s="10">
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -10487,15 +10430,15 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
@@ -10514,7 +10457,7 @@
       <c r="H6" s="39"/>
       <c r="I6" s="57"/>
       <c r="L6" s="13" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -10525,7 +10468,7 @@
       <c r="A7" s="26"/>
       <c r="B7" s="39"/>
       <c r="C7" s="22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
@@ -10534,7 +10477,7 @@
       <c r="H7" s="39"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -10542,7 +10485,7 @@
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
@@ -10550,7 +10493,7 @@
       <c r="H8" s="40"/>
       <c r="I8" s="3"/>
       <c r="L8" s="67" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="18"/>
     </row>
@@ -10565,7 +10508,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -10574,7 +10517,7 @@
       <c r="A10" s="26"/>
       <c r="B10" s="39"/>
       <c r="C10" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="25"/>
@@ -10583,7 +10526,7 @@
       <c r="H10" s="39"/>
       <c r="I10" s="3"/>
       <c r="L10" s="67" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -10592,7 +10535,7 @@
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
@@ -10601,7 +10544,7 @@
       <c r="I11" s="3"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -10619,7 +10562,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -10631,7 +10574,7 @@
       <c r="A13" s="26"/>
       <c r="B13" s="39"/>
       <c r="C13" s="22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
@@ -10640,7 +10583,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -10659,7 +10602,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="3"/>
       <c r="L14" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -10671,7 +10614,7 @@
       <c r="A15" s="26"/>
       <c r="B15" s="33"/>
       <c r="C15" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
@@ -10680,7 +10623,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -10697,7 +10640,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="3"/>
       <c r="L16" s="67" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -10707,7 +10650,7 @@
       <c r="A17" s="26"/>
       <c r="B17" s="39"/>
       <c r="C17" s="22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -10721,7 +10664,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M17" s="18"/>
       <c r="Q17" s="18"/>
@@ -10731,7 +10674,7 @@
       <c r="B18" s="53"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -10740,7 +10683,7 @@
       <c r="I18" s="3"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M18" s="18"/>
       <c r="Q18" s="18"/>
@@ -10759,7 +10702,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
@@ -10769,7 +10712,7 @@
       <c r="A20" s="26"/>
       <c r="B20" s="39"/>
       <c r="C20" s="22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
@@ -10778,7 +10721,7 @@
       <c r="H20" s="39"/>
       <c r="I20" s="3"/>
       <c r="L20" s="18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
@@ -10804,7 +10747,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="54"/>
       <c r="E22" s="31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -10841,11 +10784,11 @@
       <c r="B25" s="2"/>
       <c r="C25" s="39"/>
       <c r="D25" s="27" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E25" s="39"/>
       <c r="F25" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G25" s="31">
         <v>2</v>

--- a/AppTec/practice/TeamA/view.xlsx
+++ b/AppTec/practice/TeamA/view.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="218">
   <si>
     <t>掲示板システム</t>
     <rPh sb="0" eb="3">
@@ -86,27 +86,6 @@
   </si>
   <si>
     <t>三</t>
-    <rPh sb="0" eb="1">
-      <t>サン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">三  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
     <rPh sb="0" eb="1">
       <t>サン</t>
     </rPh>
@@ -1466,39 +1445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>ユーザー管理</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>→コメントボタンを押したら出てくる欄</t>
     <rPh sb="9" eb="10">
       <t>オ</t>
@@ -1665,24 +1611,6 @@
   </si>
   <si>
     <t>※エラーメッセージ 8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">コメント </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2209,29 +2137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニューアイコン（ユーザー管理権限のあるアカウントのみ）</t>
-    <rPh sb="13" eb="15">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→権限がない人はメニューアイコンがなく、ログアウトリンクのみ表示</t>
-    <rPh sb="1" eb="3">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期値：</t>
     <rPh sb="0" eb="3">
       <t>ショキチ</t>
@@ -2369,25 +2274,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期の表示件数は最大10件とする</t>
-    <rPh sb="0" eb="2">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2527,69 +2413,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>＜前へ</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次へ＞</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前10件と次10件に遷移できるリンク</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→前のページがないときは&lt;前へが消える</t>
-    <rPh sb="1" eb="2">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→次のページがないときは次へ&gt;が消える</t>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>記号はアンダースコアだけ使用可能</t>
     <rPh sb="0" eb="2">
       <t>キゴウ</t>
@@ -2707,14 +2530,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">コメント </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コメント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※そのアカウントは既に登録されています</t>
     <rPh sb="9" eb="10">
       <t>スデ</t>
@@ -2738,6 +2553,62 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→権限がない人はログアウトリンクのみ表示</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u val="double"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ユーザー管理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2746,7 +2617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2870,6 +2741,25 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="18"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2921,7 +2811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -3258,13 +3148,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3367,432 +3268,426 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3810,6 +3705,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4293,38 +4212,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -4359,11 +4278,13 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="182"/>
+      <c r="D5" s="183"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4372,19 +4293,19 @@
       <c r="L5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="105" t="s">
+      <c r="M5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="105"/>
+      <c r="N5" s="90"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="18"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4393,10 +4314,10 @@
       <c r="L6" s="10">
         <v>3</v>
       </c>
-      <c r="M6" s="105" t="s">
+      <c r="M6" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="105"/>
+      <c r="N6" s="90"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -4412,7 +4333,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="M7" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N7" s="18"/>
     </row>
@@ -4420,16 +4341,14 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="M8" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -4440,14 +4359,14 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="M9" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N9" s="18"/>
       <c r="Q9" s="30"/>
@@ -4481,26 +4400,26 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="M11" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85">
+      <c r="A12" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93">
         <v>1</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="9"/>
       <c r="I12" s="3"/>
-      <c r="M12" s="67" t="s">
-        <v>220</v>
+      <c r="M12" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -4517,29 +4436,29 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="M13" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="88">
+      <c r="A14" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="96">
         <v>2</v>
       </c>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="90"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
       <c r="H14" s="9"/>
       <c r="I14" s="3"/>
-      <c r="M14" s="67" t="s">
-        <v>221</v>
+      <c r="M14" s="64" t="s">
+        <v>209</v>
       </c>
       <c r="N14" s="18"/>
-      <c r="Q14" s="42"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
@@ -4552,23 +4471,23 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="M15" s="18" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
+      <c r="C16" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="9"/>
       <c r="I16" s="3"/>
       <c r="M16" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N16" s="18"/>
     </row>
@@ -4581,23 +4500,23 @@
       <c r="F17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
-      <c r="M17" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
+      <c r="M17" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="103">
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="88">
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
@@ -4605,7 +4524,7 @@
       <c r="L18" s="10">
         <v>4</v>
       </c>
-      <c r="M18" s="47" t="s">
+      <c r="M18" s="45" t="s">
         <v>6</v>
       </c>
       <c r="N18" s="32"/>
@@ -4616,14 +4535,14 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="M19" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P19" s="18"/>
     </row>
@@ -4859,17 +4778,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="D8:F9"/>
-    <mergeCell ref="M6:N6"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4881,52 +4800,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="71" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView zoomScale="71" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="180">
+        <v>1</v>
+      </c>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="108"/>
-      <c r="K2" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="181"/>
+      <c r="K2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4935,40 +4852,39 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>189</v>
-      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="18"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="70"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="119"/>
+      <c r="A4" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="144"/>
       <c r="I4" s="3"/>
-      <c r="L4" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="70"/>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
@@ -4977,29 +4893,29 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="3"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="Q5" s="70"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="Q5" s="67"/>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="54"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
@@ -5007,43 +4923,43 @@
         <v>2</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="Q6" s="70"/>
+      <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="85">
+      <c r="B7" s="93">
         <v>3</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="85">
+      <c r="C7" s="95"/>
+      <c r="D7" s="93">
         <v>4</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="117"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="142"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
-      <c r="Q7" s="70"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="140" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="140"/>
+      <c r="D8" s="107" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="107"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -5052,11 +4968,11 @@
         <v>3</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="19"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="70"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="67"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
@@ -5068,183 +4984,181 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
-      <c r="K9" s="70"/>
+      <c r="K9" s="67"/>
       <c r="L9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="71"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
+        <v>20</v>
+      </c>
+      <c r="M9" s="68"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="138" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="139"/>
+      <c r="B10" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="106"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
-      <c r="K10" s="70"/>
+      <c r="K10" s="67"/>
       <c r="L10" s="18" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
+        <v>187</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="L11" s="18" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
+      <c r="B12" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="131"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="L14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="131"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="131"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="L16" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
-      <c r="B17" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="137"/>
+      <c r="B17" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="K17" s="10">
         <v>4</v>
       </c>
-      <c r="L17" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="47"/>
+      <c r="L17" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="L18" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="138" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="139"/>
+      <c r="B19" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="106"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -5252,32 +5166,32 @@
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="L19" s="18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
+      <c r="B20" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="L20" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -5285,104 +5199,104 @@
         <v>5</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="K22" s="10">
         <v>6</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M22" s="19"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="140" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="104"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="K23" s="10">
         <v>7</v>
       </c>
-      <c r="L23" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="M23" s="47"/>
+      <c r="L23" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" s="45"/>
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="138" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="B24" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="L24" s="47" t="s">
-        <v>212</v>
-      </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
+      <c r="L24" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="B25" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="10">
         <v>8</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="47"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="3"/>
       <c r="L26" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -5390,35 +5304,35 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="K27" s="10"/>
       <c r="L27" s="13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="149"/>
+      <c r="B28" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
       <c r="L28" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -5434,15 +5348,15 @@
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
       <c r="L29" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-      <c r="B30" s="138" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="139"/>
+      <c r="B30" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="106"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5453,132 +5367,122 @@
         <v>9</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="124"/>
-      <c r="G31" s="125"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="133"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="L31" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="128"/>
+      <c r="B32" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="K32" s="10">
         <v>10</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="131"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="125"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="L33" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="131"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
       <c r="K34" s="10">
         <v>11</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M34" s="18"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="131"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
-      <c r="K35" s="10">
-        <v>12</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="K35" s="10"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="131"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
-      <c r="L36" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
-      <c r="B37" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="G37" s="137"/>
+      <c r="B37" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="119"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
-      <c r="L37" s="18" t="s">
-        <v>217</v>
-      </c>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
@@ -5594,15 +5498,9 @@
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F39" s="77">
-        <v>12</v>
-      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="74"/>
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
     </row>
@@ -6509,23 +6407,7 @@
       <c r="I121" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B12:G16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:G36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:G37"/>
+  <mergeCells count="25">
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A4:B4"/>
@@ -6537,6 +6419,20 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B12:G16"/>
+    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6549,40 +6445,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="72" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="72" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="107" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="134" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="108"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6591,33 +6487,33 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="111" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="150"/>
+      <c r="K3" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="128"/>
+      <c r="M3" s="151"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="118" t="s">
+      <c r="A4" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="119"/>
+      <c r="H4" s="144"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="151"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="152"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -6630,59 +6526,59 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="121"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="146"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="83" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
+      <c r="L5" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="54"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="116" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="117"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="141" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="142"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6696,13 +6592,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="L8" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6725,10 +6621,10 @@
     </row>
     <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
-      <c r="B10" s="134" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="149"/>
+      <c r="B10" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="119"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6736,29 +6632,29 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="136" t="s">
+      <c r="L10" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="130"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="137"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="P10" s="154"/>
+      <c r="P10" s="150"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
@@ -6771,32 +6667,32 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
+      <c r="B12" s="120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="150"/>
+      <c r="K13" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="151"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -6804,17 +6700,17 @@
     </row>
     <row r="14" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="131"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="151"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="140"/>
+      <c r="M14" s="152"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6822,94 +6718,92 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="131"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="125"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
+      <c r="L15" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="131"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
-      <c r="B17" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="136" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="137"/>
+      <c r="B17" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
+      <c r="L18" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
-      <c r="B19" s="134" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="149"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="53"/>
+      <c r="B19" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="119"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="K19" s="1"/>
@@ -6922,37 +6816,37 @@
     </row>
     <row r="20" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
+      <c r="B20" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="136" t="s">
+      <c r="L20" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="130"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="137"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="154"/>
+      <c r="P20" s="150"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -6966,18 +6860,18 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="38"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
-      <c r="B23" s="54"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -6988,90 +6882,90 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="134" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
+      <c r="B24" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="K24" s="10">
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="B25" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="145"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10">
         <v>2</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="116"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="K27" s="13"/>
       <c r="L27" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="149"/>
+      <c r="B28" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
     </row>
@@ -7099,10 +6993,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="134" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="149"/>
+      <c r="B31" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="119"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -7112,90 +7006,88 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="123" t="s">
+      <c r="B32" s="131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="124"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="124"/>
-      <c r="G32" s="125"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="128"/>
+      <c r="B33" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="131"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="125"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="131"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="125"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="131"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="129"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="131"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="125"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
-      <c r="B38" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="B38" s="117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="149" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="150"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
     </row>
@@ -7211,19 +7103,15 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="81"/>
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4"/>
@@ -7231,7 +7119,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="79"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
@@ -8118,18 +8006,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H5"/>
     <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="L5:P7"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="K13:M14"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B17:G17"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="B25:G27"/>
@@ -8137,21 +8035,11 @@
     <mergeCell ref="L18:P18"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="B12:G16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B20:F22"/>
     <mergeCell ref="L15:P17"/>
     <mergeCell ref="B33:G37"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8164,38 +8052,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="84" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
+      <c r="A1" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -8204,38 +8092,38 @@
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="109" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="A4" s="184" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="3"/>
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
+      <c r="L4" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
@@ -8254,11 +8142,11 @@
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="105" t="s">
-        <v>206</v>
-      </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
+      <c r="L5" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -8273,16 +8161,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="160" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="161"/>
+      <c r="G6" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="157"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>3</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -8295,19 +8183,19 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
-      <c r="B7" s="134" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="B7" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="3"/>
       <c r="K7" s="10"/>
       <c r="L7" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -8320,171 +8208,171 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="158"/>
-      <c r="H8" s="159"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="155"/>
       <c r="I8" s="3"/>
       <c r="K8" s="10">
         <v>4</v>
       </c>
-      <c r="L8" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
+      <c r="L8" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
-      <c r="B9" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="128"/>
+      <c r="B9" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="131"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="3"/>
       <c r="L10" s="18" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="131"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="3"/>
       <c r="K11" s="10">
         <v>5</v>
       </c>
-      <c r="L11" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="L11" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="155"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="158"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
+        <v>193</v>
+      </c>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26"/>
-      <c r="B14" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="3"/>
       <c r="K14" s="10">
         <v>6</v>
       </c>
-      <c r="L14" s="156" t="s">
-        <v>203</v>
-      </c>
-      <c r="M14" s="156"/>
-      <c r="N14" s="156"/>
-      <c r="O14" s="156"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="156"/>
-      <c r="R14" s="156"/>
-      <c r="S14" s="156"/>
-      <c r="T14" s="156"/>
+      <c r="L14" s="159" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
     </row>
     <row r="15" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="3"/>
-      <c r="L15" s="76" t="s">
-        <v>201</v>
+      <c r="L15" s="73" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="1"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="H16" s="37"/>
       <c r="I16" s="3"/>
-      <c r="L16" s="76" t="s">
-        <v>202</v>
+      <c r="L16" s="73" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -8500,17 +8388,17 @@
       <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="156" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" s="156"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
+      <c r="L17" s="159" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="159"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
@@ -8523,18 +8411,18 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="156" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" s="156"/>
-      <c r="N18" s="156"/>
-      <c r="O18" s="156"/>
-      <c r="P18" s="156"/>
-      <c r="Q18" s="156"/>
-      <c r="R18" s="156"/>
-      <c r="S18" s="156"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="156"/>
+      <c r="L18" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="159"/>
+      <c r="T18" s="159"/>
+      <c r="U18" s="159"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
@@ -8550,7 +8438,7 @@
         <v>8</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -8567,12 +8455,12 @@
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="41"/>
+      <c r="L20" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="39"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
@@ -8586,16 +8474,16 @@
       <c r="I21" s="3"/>
       <c r="K21" s="10"/>
       <c r="L21" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
+        <v>85</v>
+      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
@@ -8608,13 +8496,13 @@
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
       <c r="L22" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+        <v>86</v>
+      </c>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
@@ -8627,13 +8515,13 @@
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="L23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
+        <v>87</v>
+      </c>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
     </row>
     <row r="24" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
@@ -8646,13 +8534,13 @@
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="L24" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
+        <v>88</v>
+      </c>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
     </row>
     <row r="25" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
@@ -8666,16 +8554,16 @@
       <c r="I25" s="3"/>
       <c r="K25" s="10"/>
       <c r="L25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
+        <v>90</v>
+      </c>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
@@ -8688,17 +8576,17 @@
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="M26" s="51"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
+      <c r="L26" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="48"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
@@ -8712,16 +8600,16 @@
       <c r="I27" s="3"/>
       <c r="K27" s="10"/>
       <c r="L27" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="51"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
+        <v>91</v>
+      </c>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
@@ -8735,16 +8623,16 @@
       <c r="I28" s="3"/>
       <c r="K28" s="10"/>
       <c r="L28" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
+        <v>92</v>
+      </c>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
@@ -8758,11 +8646,11 @@
       <c r="I29" s="3"/>
       <c r="K29" s="10"/>
       <c r="L29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
@@ -8775,12 +8663,12 @@
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
+      <c r="L30" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
@@ -8794,11 +8682,11 @@
       <c r="I31" s="3"/>
       <c r="K31" s="10"/>
       <c r="L31" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
+        <v>95</v>
+      </c>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
@@ -8813,12 +8701,12 @@
       <c r="K32" s="10">
         <v>9</v>
       </c>
-      <c r="L32" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
+      <c r="L32" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
@@ -8831,7 +8719,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="L33" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8902,18 +8790,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B9:H13"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:U18"/>
+    <mergeCell ref="L14:T14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:H13"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:U18"/>
-    <mergeCell ref="L14:T14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8925,8 +8813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8941,24 +8829,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="162" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="164"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
+      <c r="A1" s="160" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="162"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="V1" s="18"/>
@@ -8967,20 +8855,20 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="167"/>
-      <c r="K2" s="111" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="150"/>
+      <c r="A2" s="163"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="165"/>
+      <c r="K2" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="128"/>
+      <c r="M2" s="151"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -8993,44 +8881,44 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="60"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="35"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="151"/>
+      <c r="I3" s="34"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="152"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="109" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="136" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="62"/>
+      <c r="A4" s="136" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="137"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="166"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4" s="58"/>
+        <v>163</v>
+      </c>
+      <c r="I4" s="55"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="18"/>
     </row>
@@ -9045,93 +8933,93 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
+      <c r="L5" s="91" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="18"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="58"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="55"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="G7" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="H7" s="72" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>164</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="73">
+      <c r="A8" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="70">
         <v>1546</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="70">
         <v>461</v>
       </c>
-      <c r="G8" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>115</v>
+      <c r="G8" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>114</v>
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
@@ -9144,66 +9032,66 @@
     </row>
     <row r="9" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="43">
+        <v>109</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="41">
         <v>1567</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="41">
         <v>672</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>116</v>
+      <c r="G9" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="136" t="s">
+      <c r="L9" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="130"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="137"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="154"/>
+      <c r="P9" s="150"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>78</v>
+      <c r="A10" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="43">
+        <v>110</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="41">
         <v>1578</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="41">
         <v>781</v>
       </c>
-      <c r="G10" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>117</v>
+      <c r="G10" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
@@ -9216,14 +9104,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="58"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="55"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -9233,20 +9121,20 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="58"/>
-      <c r="K12" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="46"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="55"/>
+      <c r="K12" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="128"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="44"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -9254,17 +9142,17 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="58"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="151"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="55"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="152"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -9272,87 +9160,87 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="58"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="55"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="58"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="55"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
+      <c r="L15" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="58"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="55"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="26"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="58"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="55"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="26"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="58"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="55"/>
       <c r="K18" s="1"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -9363,36 +9251,36 @@
     </row>
     <row r="19" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="26"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="58"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="55"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="136" t="s">
+      <c r="L19" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="130"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="137"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="154"/>
+      <c r="P19" s="150"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="58"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="55"/>
       <c r="K20" s="4"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -9403,282 +9291,282 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="58"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="26"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="58"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="26"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="58"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="55"/>
       <c r="K23" s="10">
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="26"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="58"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="55"/>
       <c r="K24" s="10">
         <v>2</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="26"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="58"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="55"/>
       <c r="K25" s="10">
         <v>3</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="26"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="58"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="55"/>
       <c r="K26" s="10">
         <v>4</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="26"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="58"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="55"/>
       <c r="L27" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="26"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="58"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="55"/>
       <c r="L28" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="26"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="58"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="55"/>
       <c r="K29" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="26"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="58"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="55"/>
       <c r="K30" s="10">
         <v>11</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="26"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="58"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="55"/>
       <c r="K31" s="10">
         <v>12</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="26"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="58"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="55"/>
       <c r="K32" s="10">
         <v>13</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="26"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="58"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="55"/>
       <c r="L33" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="26"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="58"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="55"/>
       <c r="K34" s="10">
         <v>14</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="26"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="58"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="55"/>
       <c r="K35" s="10"/>
       <c r="L35" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="26"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="58"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="55"/>
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="26"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="58"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="55"/>
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="26"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="58"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="55"/>
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="65"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="62"/>
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9711,8 +9599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="73" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9721,31 +9609,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="171"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="169"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="172"/>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="174"/>
+      <c r="A2" s="170"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="172"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9755,13 +9643,15 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="185" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="186"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
@@ -9769,104 +9659,102 @@
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="186"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="26"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>2</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="39"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="3"/>
       <c r="L8" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
-      <c r="B9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="175" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="173" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
       <c r="I10" s="3"/>
-      <c r="L10" s="67" t="s">
-        <v>220</v>
+      <c r="L10" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -9882,7 +9770,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -9892,17 +9780,17 @@
       <c r="A12" s="26"/>
       <c r="B12" s="33"/>
       <c r="C12" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="3"/>
       <c r="J12" s="18"/>
       <c r="L12" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -9910,19 +9798,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="39"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="3"/>
       <c r="J13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9936,25 +9824,25 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="18"/>
-      <c r="L14" s="67" t="s">
-        <v>221</v>
+      <c r="L14" s="64" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26"/>
-      <c r="B15" s="39"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="3"/>
       <c r="J15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -9963,17 +9851,17 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="3"/>
       <c r="J16" s="18"/>
       <c r="L16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -9982,37 +9870,37 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="26"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="3"/>
       <c r="J17" s="18"/>
       <c r="L17" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="33"/>
       <c r="I18" s="3"/>
       <c r="J18" s="18"/>
       <c r="L18" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O18" s="18"/>
       <c r="S18" s="18"/>
@@ -10033,7 +9921,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -10046,19 +9934,19 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="3"/>
       <c r="J20" s="18"/>
       <c r="L20" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -10066,76 +9954,76 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
       <c r="I21" s="3"/>
       <c r="J21" s="18"/>
       <c r="L21" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M21" s="18"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="26"/>
-      <c r="B22" s="39"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="I22" s="3"/>
       <c r="J22" s="18"/>
       <c r="L22" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="26"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="3"/>
       <c r="J23" s="18"/>
       <c r="L23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M23" s="18"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="26"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
       <c r="I24" s="3"/>
       <c r="J24" s="18"/>
       <c r="L24" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M24" s="18"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="26"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -10145,7 +10033,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -10163,7 +10051,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="18"/>
       <c r="L26" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -10174,11 +10062,11 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E27" s="53"/>
+        <v>150</v>
+      </c>
+      <c r="E27" s="50"/>
       <c r="F27" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G27" s="31">
         <v>1</v>
@@ -10336,9 +10224,9 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:I2"/>
-    <mergeCell ref="C6:G7"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10351,7 +10239,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10360,31 +10248,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="178"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="181"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="179"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -10393,8 +10281,8 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="69" t="s">
-        <v>75</v>
+      <c r="K3" s="66" t="s">
+        <v>74</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -10403,23 +10291,23 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="110" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="185" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="K4" s="10">
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -10427,18 +10315,18 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="185"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
@@ -10447,17 +10335,17 @@
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="56"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="31"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="57"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="54"/>
       <c r="L6" s="13" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -10466,34 +10354,34 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
-      <c r="B7" s="39"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="3"/>
-      <c r="L8" s="67" t="s">
-        <v>220</v>
+      <c r="L8" s="64" t="s">
+        <v>208</v>
       </c>
       <c r="Q8" s="18"/>
     </row>
@@ -10508,43 +10396,43 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="25"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="3"/>
-      <c r="L10" s="67" t="s">
-        <v>222</v>
+      <c r="L10" s="64" t="s">
+        <v>210</v>
       </c>
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="3"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -10562,7 +10450,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -10572,18 +10460,18 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="39"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -10593,16 +10481,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="3"/>
       <c r="L14" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -10614,16 +10502,16 @@
       <c r="A15" s="26"/>
       <c r="B15" s="33"/>
       <c r="C15" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -10631,16 +10519,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="3"/>
-      <c r="L16" s="67" t="s">
-        <v>221</v>
+      <c r="L16" s="64" t="s">
+        <v>209</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -10648,9 +10536,9 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="26"/>
-      <c r="B17" s="39"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -10658,32 +10546,32 @@
       <c r="G17" s="31">
         <v>3</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="3"/>
       <c r="K17" s="28">
         <v>2</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="18"/>
       <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="26"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="I18" s="3"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="18"/>
       <c r="Q18" s="18"/>
@@ -10702,7 +10590,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
@@ -10710,18 +10598,18 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="26"/>
-      <c r="B20" s="39"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
       <c r="I20" s="3"/>
       <c r="L20" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
@@ -10729,66 +10617,66 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="26"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="58"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="55"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="54"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="58"/>
+        <v>71</v>
+      </c>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="55"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
-      <c r="B23" s="39"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="58"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="1"/>
-      <c r="B24" s="39"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="58"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="39"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="E25" s="37"/>
       <c r="F25" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25" s="31">
         <v>2</v>
@@ -10799,11 +10687,11 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
     </row>
@@ -10964,7 +10852,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I2"/>
-    <mergeCell ref="C4:G5"/>
+    <mergeCell ref="A4:D5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AppTec/practice/TeamA/view.xlsx
+++ b/AppTec/practice/TeamA/view.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970" tabRatio="740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="214">
   <si>
     <t>掲示板システム</t>
     <rPh sb="0" eb="3">
@@ -456,13 +456,6 @@
     </r>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※変更はできません</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -770,13 +763,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変更</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・変更/戻る</t>
     <rPh sb="1" eb="3">
       <t>ヘンコウ</t>
@@ -2127,16 +2113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コメントボタン（折り畳み）</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期値：</t>
     <rPh sb="0" eb="3">
       <t>ショキチ</t>
@@ -2325,90 +2301,6 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点線部分</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>コメントが全部表示、他者のコメントの上にコメント入力欄が出る、隠せる</t>
-    </r>
-    <rPh sb="2" eb="4">
-      <t>テンセン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>タシャ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>カク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3165,7 +3057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3412,6 +3304,60 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3439,124 +3385,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3568,71 +3442,104 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3640,11 +3547,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3705,30 +3612,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3787,67 +3670,6 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438239</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>116267</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>447183</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>125211</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="438239" y="4203521"/>
-          <a:ext cx="4641761" cy="2566831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="sysDash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4213,37 +4035,37 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -4280,11 +4102,11 @@
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7"/>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="183"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4293,19 +4115,19 @@
       <c r="L5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="90"/>
+      <c r="N5" s="108"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4314,10 +4136,10 @@
       <c r="L6" s="10">
         <v>3</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="90"/>
+      <c r="N6" s="108"/>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29"/>
@@ -4333,7 +4155,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="3"/>
       <c r="M7" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N7" s="18"/>
     </row>
@@ -4348,7 +4170,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="M8" s="30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
@@ -4366,7 +4188,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="M9" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N9" s="18"/>
       <c r="Q9" s="30"/>
@@ -4400,26 +4222,26 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="M11" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93">
+      <c r="A12" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87">
         <v>1</v>
       </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="9"/>
       <c r="I12" s="3"/>
       <c r="M12" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
@@ -4436,26 +4258,26 @@
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="M13" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="96">
+      <c r="A14" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="86"/>
+      <c r="C14" s="90">
         <v>2</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="9"/>
       <c r="I14" s="3"/>
       <c r="M14" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N14" s="18"/>
       <c r="Q14" s="40"/>
@@ -4471,23 +4293,23 @@
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="M15" s="18" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="89" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="C16" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="9"/>
       <c r="I16" s="3"/>
       <c r="M16" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N16" s="18"/>
     </row>
@@ -4501,7 +4323,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="M17" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
@@ -4511,12 +4333,12 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="88">
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="106">
         <v>4</v>
       </c>
       <c r="H18" s="2"/>
@@ -4535,14 +4357,14 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="M19" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P19" s="18"/>
     </row>
@@ -4778,17 +4600,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4801,23 +4623,23 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G16"/>
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="180">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="109">
         <v>1</v>
       </c>
       <c r="K1" s="68"/>
@@ -4829,15 +4651,15 @@
       <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="181"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="110"/>
       <c r="K2" s="66"/>
       <c r="P2" s="67"/>
       <c r="Q2" s="67"/>
@@ -4861,24 +4683,24 @@
       <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="185"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="35"/>
       <c r="D4" s="51"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="143" t="s">
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="144"/>
+      <c r="H4" s="121"/>
       <c r="I4" s="3"/>
       <c r="K4" s="10">
         <v>1</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="46"/>
       <c r="N4" s="46"/>
@@ -4893,12 +4715,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="3"/>
       <c r="K5" s="67"/>
       <c r="L5" s="68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M5" s="68"/>
       <c r="N5" s="68"/>
@@ -4931,18 +4753,18 @@
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="93">
+      <c r="B7" s="87">
         <v>3</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="93">
+      <c r="C7" s="89"/>
+      <c r="D7" s="87">
         <v>4</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="141" t="s">
+      <c r="E7" s="88"/>
+      <c r="F7" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="142"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
@@ -4956,10 +4778,10 @@
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="107" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="107"/>
+      <c r="D8" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="139"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -4996,10 +4818,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
-      <c r="B10" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="106"/>
+      <c r="B10" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="138"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5008,43 +4830,43 @@
       <c r="I10" s="3"/>
       <c r="K10" s="67"/>
       <c r="L10" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N10" s="67"/>
       <c r="O10" s="67"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="131" t="s">
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="L11" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
@@ -5055,12 +4877,12 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
@@ -5071,12 +4893,12 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="L14" s="18" t="s">
@@ -5087,12 +4909,12 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="136"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
@@ -5103,12 +4925,12 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="136"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="L16" s="18" t="s">
@@ -5119,14 +4941,14 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="K17" s="10">
@@ -5155,10 +4977,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="106"/>
+      <c r="B19" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="138"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -5166,32 +4988,32 @@
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="L19" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
       <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="L20" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -5206,11 +5028,11 @@
     </row>
     <row r="22" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="1"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="79"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
@@ -5225,114 +5047,111 @@
     <row r="23" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
       <c r="B23" s="51"/>
-      <c r="C23" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="139" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
       <c r="G23" s="20" t="s">
         <v>35</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
       <c r="K23" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L23" s="45" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="M23" s="45"/>
       <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="106"/>
+      <c r="B24" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="138"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
-      <c r="L24" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="14"/>
+      <c r="L24" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
+      <c r="B25" s="113" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
-      <c r="K25" s="10">
-        <v>8</v>
-      </c>
-      <c r="L25" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="45"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="47"/>
       <c r="I26" s="3"/>
       <c r="L26" s="18" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
-      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
-      <c r="K27" s="10"/>
       <c r="L27" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
+      <c r="K28" s="10">
+        <v>9</v>
+      </c>
       <c r="L28" s="18" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -5347,16 +5166,18 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="3"/>
-      <c r="L29" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="L29" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
-      <c r="B30" s="105" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="106"/>
+      <c r="B30" s="137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="138"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5364,127 +5185,114 @@
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
       <c r="K30" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="131" t="s">
+      <c r="C31" s="126"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="132"/>
-      <c r="G31" s="133"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="L31" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="133"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="K32" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="125"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="136"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
-      <c r="L33" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="125"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
-      <c r="K34" s="10">
-        <v>11</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="M34" s="18"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="125"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="136"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="K35" s="10"/>
       <c r="L35" s="18"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="125"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="L36" s="18"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="119"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="130"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
       <c r="L37" s="18"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -5495,7 +5303,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="37"/>
@@ -5504,7 +5312,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5515,7 +5323,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -5526,7 +5334,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -5537,7 +5345,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -5548,7 +5356,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -5559,7 +5367,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -5570,7 +5378,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -5581,7 +5389,7 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -5592,7 +5400,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -6408,6 +6216,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B12:G16"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="A4:B4"/>
@@ -6420,19 +6238,9 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B30:C30"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B12:G16"/>
-    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6446,36 +6254,36 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="61" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="134" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="150" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="135"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="151"/>
     </row>
     <row r="3" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="44"/>
@@ -6487,33 +6295,33 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="128"/>
-      <c r="M3" s="151"/>
+      <c r="K3" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="114"/>
+      <c r="M3" s="152"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
     <row r="4" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="185"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="35"/>
       <c r="D4" s="51"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="143" t="s">
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="144"/>
+      <c r="H4" s="121"/>
       <c r="I4" s="3"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="152"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="153"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -6526,17 +6334,17 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="146"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="123"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="91" t="s">
-        <v>117</v>
-      </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
+      <c r="L5" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6554,31 +6362,31 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="141" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="142"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6592,13 +6400,11 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -6621,10 +6427,10 @@
     </row>
     <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="1"/>
-      <c r="B10" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="119"/>
+      <c r="B10" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="130"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6632,29 +6438,29 @@
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="129" t="s">
+      <c r="L10" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="156"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="130"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="150"/>
+      <c r="P10" s="149"/>
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="131" t="s">
+      <c r="C11" s="126"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="133"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="K11" s="4"/>
@@ -6667,32 +6473,32 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133"/>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="136"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="151"/>
+      <c r="K13" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="114"/>
+      <c r="M13" s="152"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -6700,17 +6506,17 @@
     </row>
     <row r="14" spans="1:17" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="152"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="153"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -6718,60 +6524,60 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="136"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
+      <c r="L15" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="136"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="119"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="130"/>
       <c r="H17" s="2"/>
       <c r="I17" s="3"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -6785,21 +6591,19 @@
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="1"/>
-      <c r="B19" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="119"/>
+      <c r="B19" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="130"/>
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="63"/>
@@ -6816,37 +6620,37 @@
     </row>
     <row r="20" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="1"/>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="129" t="s">
+      <c r="L20" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="156"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="130"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="150"/>
+      <c r="P20" s="149"/>
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="15"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
@@ -6860,11 +6664,11 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
       <c r="G22" s="36"/>
       <c r="H22" s="2"/>
       <c r="I22" s="3"/>
@@ -6882,10 +6686,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
-      <c r="B24" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="119"/>
+      <c r="B24" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="130"/>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
       <c r="F24" s="52"/>
@@ -6896,76 +6700,76 @@
         <v>1</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="113"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="K26" s="10">
         <v>2</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="2"/>
       <c r="I27" s="3"/>
       <c r="K27" s="13"/>
       <c r="L27" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
-      <c r="B28" s="117" t="s">
+      <c r="B28" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="119"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="130"/>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
     </row>
@@ -6993,10 +6797,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
-      <c r="B31" s="117" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="119"/>
+      <c r="B31" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="130"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -7006,88 +6810,88 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="131" t="s">
+      <c r="C32" s="126"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="132"/>
-      <c r="G32" s="133"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
-      <c r="B33" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="B33" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="125"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="125"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="136"/>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="125"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A37" s="1"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="125"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="136"/>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="1"/>
-      <c r="B38" s="117" t="s">
+      <c r="B38" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="149" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="150"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="149"/>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
     </row>
@@ -8005,13 +7809,16 @@
       <c r="I121" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H5"/>
+  <mergeCells count="32">
+    <mergeCell ref="B25:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B12:G16"/>
+    <mergeCell ref="B20:F22"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="L5:P8"/>
+    <mergeCell ref="L15:P18"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B32:D32"/>
@@ -8019,7 +7826,6 @@
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="L5:P7"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="K13:M14"/>
@@ -8028,18 +7834,14 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H5"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="B25:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B12:G16"/>
-    <mergeCell ref="B20:F22"/>
-    <mergeCell ref="L15:P17"/>
     <mergeCell ref="B33:G37"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8053,37 +7855,37 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="101"/>
+      <c r="A1" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="95"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="102"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="N2" s="18"/>
@@ -8103,11 +7905,11 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="184" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
+      <c r="A4" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -8117,13 +7919,13 @@
       <c r="K4" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
+      <c r="L4" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
@@ -8142,11 +7944,11 @@
       <c r="K5" s="10">
         <v>2</v>
       </c>
-      <c r="L5" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
+      <c r="L5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
@@ -8161,16 +7963,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="156" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="157"/>
+      <c r="G6" s="161" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="162"/>
       <c r="I6" s="3"/>
       <c r="K6" s="10">
         <v>3</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -8183,10 +7985,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="26"/>
-      <c r="B7" s="117" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="119"/>
+      <c r="B7" s="128" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="130"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
@@ -8195,7 +7997,7 @@
       <c r="I7" s="3"/>
       <c r="K7" s="10"/>
       <c r="L7" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -8208,23 +8010,21 @@
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26"/>
-      <c r="B8" s="131" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="153" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="154"/>
-      <c r="H8" s="155"/>
+      <c r="B8" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="3"/>
       <c r="K8" s="10">
         <v>4</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
@@ -8237,43 +8037,45 @@
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
-      <c r="B9" s="120" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="122"/>
+      <c r="B9" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="125"/>
+      <c r="B10" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="132"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
       <c r="I10" s="3"/>
       <c r="L10" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="26"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="136"/>
       <c r="I11" s="3"/>
       <c r="K11" s="10">
         <v>5</v>
@@ -8286,30 +8088,30 @@
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="26"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="125"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="136"/>
       <c r="I12" s="3"/>
       <c r="L12" s="18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="158"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
@@ -8320,35 +8122,35 @@
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="26"/>
-      <c r="B14" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="159"/>
       <c r="I14" s="3"/>
       <c r="K14" s="10">
         <v>6</v>
       </c>
-      <c r="L14" s="159" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
+      <c r="L14" s="160" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
     </row>
     <row r="15" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="51"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -8356,7 +8158,7 @@
       <c r="H15" s="37"/>
       <c r="I15" s="3"/>
       <c r="L15" s="73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -8364,15 +8166,14 @@
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="E16" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="F16" s="37"/>
-      <c r="G16" s="20" t="s">
-        <v>80</v>
-      </c>
       <c r="H16" s="37"/>
       <c r="I16" s="3"/>
       <c r="L16" s="73" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
@@ -8388,10 +8189,10 @@
       <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="159" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="159"/>
+      <c r="L17" s="160" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="160"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
@@ -8402,43 +8203,43 @@
     </row>
     <row r="18" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="3"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="159" t="s">
-        <v>148</v>
-      </c>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
+      <c r="L18" s="160" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="160"/>
+      <c r="S18" s="160"/>
+      <c r="T18" s="160"/>
+      <c r="U18" s="160"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="3"/>
       <c r="K19" s="10">
         <v>8</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -8446,17 +8247,17 @@
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="3"/>
       <c r="K20" s="10"/>
       <c r="L20" s="48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
@@ -8464,17 +8265,17 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="3"/>
       <c r="K21" s="10"/>
       <c r="L21" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M21" s="39"/>
       <c r="N21" s="39"/>
@@ -8487,16 +8288,16 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="3"/>
       <c r="L22" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -8506,16 +8307,16 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="3"/>
       <c r="L23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -8534,7 +8335,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="3"/>
       <c r="L24" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
@@ -8554,7 +8355,7 @@
       <c r="I25" s="3"/>
       <c r="K25" s="10"/>
       <c r="L25" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M25" s="39"/>
       <c r="N25" s="39"/>
@@ -8577,7 +8378,7 @@
       <c r="I26" s="3"/>
       <c r="K26" s="10"/>
       <c r="L26" s="75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M26" s="48"/>
       <c r="N26" s="39"/>
@@ -8600,7 +8401,7 @@
       <c r="I27" s="3"/>
       <c r="K27" s="10"/>
       <c r="L27" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
@@ -8623,7 +8424,7 @@
       <c r="I28" s="3"/>
       <c r="K28" s="10"/>
       <c r="L28" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M28" s="48"/>
       <c r="N28" s="48"/>
@@ -8646,7 +8447,7 @@
       <c r="I29" s="3"/>
       <c r="K29" s="10"/>
       <c r="L29" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M29" s="48"/>
       <c r="N29" s="48"/>
@@ -8664,7 +8465,7 @@
       <c r="I30" s="3"/>
       <c r="K30" s="10"/>
       <c r="L30" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M30" s="48"/>
       <c r="N30" s="48"/>
@@ -8682,7 +8483,7 @@
       <c r="I31" s="3"/>
       <c r="K31" s="10"/>
       <c r="L31" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
@@ -8702,7 +8503,7 @@
         <v>9</v>
       </c>
       <c r="L32" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
@@ -8719,7 +8520,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
       <c r="L33" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8790,18 +8591,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B9:H13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:H14"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:U18"/>
     <mergeCell ref="L14:T14"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8813,7 +8614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -8829,17 +8630,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="160" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="162"/>
+      <c r="A1" s="165" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="167"/>
       <c r="K1" s="42"/>
       <c r="L1" s="43"/>
       <c r="M1" s="43"/>
@@ -8855,20 +8656,20 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="163"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="165"/>
-      <c r="K2" s="108" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="128"/>
-      <c r="M2" s="151"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="170"/>
+      <c r="K2" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="114"/>
+      <c r="M2" s="152"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -8890,28 +8691,28 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="34"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="152"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="153"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="29.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="136" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="129" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="130"/>
+      <c r="A4" s="163" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="164"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="155" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="171"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="59"/>
       <c r="H4" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I4" s="55"/>
       <c r="K4" s="1"/>
@@ -8933,13 +8734,13 @@
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
+      <c r="L5" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="18"/>
     </row>
@@ -8954,60 +8755,60 @@
       <c r="H6" s="37"/>
       <c r="I6" s="55"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="91"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="71" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="F7" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="G7" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="H7" s="72" t="s">
         <v>159</v>
-      </c>
-      <c r="G7" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>161</v>
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="62" t="s">
-        <v>108</v>
-      </c>
       <c r="D8" s="70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" s="70">
         <v>1546</v>
@@ -9016,10 +8817,10 @@
         <v>461</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="1"/>
@@ -9032,16 +8833,16 @@
     </row>
     <row r="9" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>109</v>
-      </c>
       <c r="D9" s="41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" s="41">
         <v>1567</v>
@@ -9050,36 +8851,36 @@
         <v>672</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="3"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="129" t="s">
+      <c r="L9" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="156"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="130"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="150"/>
+      <c r="P9" s="149"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" s="41">
         <v>1578</v>
@@ -9088,10 +8889,10 @@
         <v>781</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I10" s="3"/>
       <c r="K10" s="4"/>
@@ -9129,11 +8930,11 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="55"/>
-      <c r="K12" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="L12" s="128"/>
-      <c r="M12" s="151"/>
+      <c r="K12" s="113" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="114"/>
+      <c r="M12" s="152"/>
       <c r="N12" s="44"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -9150,9 +8951,9 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="55"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="152"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="153"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -9186,13 +8987,13 @@
       <c r="H15" s="37"/>
       <c r="I15" s="55"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="91" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
+      <c r="L15" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -9206,11 +9007,11 @@
       <c r="H16" s="37"/>
       <c r="I16" s="55"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9224,11 +9025,11 @@
       <c r="H17" s="37"/>
       <c r="I17" s="55"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="85"/>
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -9260,15 +9061,15 @@
       <c r="H19" s="37"/>
       <c r="I19" s="55"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="129" t="s">
+      <c r="L19" s="155" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="156"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="130"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="150"/>
+      <c r="P19" s="149"/>
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9325,7 +9126,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9342,7 +9143,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9359,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9376,7 +9177,7 @@
         <v>4</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9390,7 +9191,7 @@
       <c r="H27" s="37"/>
       <c r="I27" s="55"/>
       <c r="L27" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9404,7 +9205,7 @@
       <c r="H28" s="37"/>
       <c r="I28" s="55"/>
       <c r="L28" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9418,10 +9219,10 @@
       <c r="H29" s="37"/>
       <c r="I29" s="55"/>
       <c r="K29" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9438,7 +9239,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9455,7 +9256,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -9472,7 +9273,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9486,7 +9287,7 @@
       <c r="H33" s="37"/>
       <c r="I33" s="55"/>
       <c r="L33" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9503,7 +9304,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9518,7 +9319,7 @@
       <c r="I35" s="55"/>
       <c r="K35" s="10"/>
       <c r="L35" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -9600,37 +9401,38 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="169"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="174"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="172"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="177"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="44"/>
@@ -9644,14 +9446,14 @@
       <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
+      <c r="A4" s="112" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="186"/>
+      <c r="F4" s="83"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
@@ -9659,23 +9461,23 @@
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="186"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="18"/>
     </row>
@@ -9693,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9707,7 +9509,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9721,14 +9523,14 @@
       <c r="H8" s="37"/>
       <c r="I8" s="3"/>
       <c r="L8" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="26"/>
       <c r="B9" s="37"/>
       <c r="C9" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
@@ -9737,7 +9539,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P9" s="18"/>
     </row>
@@ -9745,16 +9547,16 @@
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="173" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
+      <c r="D10" s="178" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
       <c r="I10" s="3"/>
       <c r="L10" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -9770,7 +9572,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -9780,7 +9582,7 @@
       <c r="A12" s="26"/>
       <c r="B12" s="33"/>
       <c r="C12" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
@@ -9790,7 +9592,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="18"/>
       <c r="L12" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -9801,7 +9603,7 @@
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
       <c r="D13" s="50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -9810,7 +9612,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="18"/>
       <c r="L13" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
@@ -9825,14 +9627,14 @@
       <c r="I14" s="3"/>
       <c r="J14" s="18"/>
       <c r="L14" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="26"/>
       <c r="B15" s="37"/>
       <c r="C15" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
@@ -9842,7 +9644,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="18"/>
       <c r="L15" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -9861,7 +9663,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="18"/>
       <c r="L16" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -9872,7 +9674,7 @@
       <c r="A17" s="26"/>
       <c r="B17" s="37"/>
       <c r="C17" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -9882,7 +9684,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="18"/>
       <c r="L17" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O17" s="18"/>
     </row>
@@ -9891,7 +9693,7 @@
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -9900,7 +9702,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="18"/>
       <c r="L18" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O18" s="18"/>
       <c r="S18" s="18"/>
@@ -9921,7 +9723,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="18"/>
       <c r="L19" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -9936,7 +9738,7 @@
       <c r="A20" s="26"/>
       <c r="B20" s="37"/>
       <c r="C20" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
@@ -9946,7 +9748,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="18"/>
       <c r="L20" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -9964,7 +9766,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="18"/>
       <c r="L21" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M21" s="18"/>
     </row>
@@ -9972,7 +9774,7 @@
       <c r="A22" s="26"/>
       <c r="B22" s="37"/>
       <c r="C22" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="24"/>
@@ -9982,7 +9784,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="18"/>
       <c r="L22" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M22" s="18"/>
     </row>
@@ -9998,7 +9800,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="18"/>
       <c r="L23" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M23" s="18"/>
     </row>
@@ -10006,21 +9808,21 @@
       <c r="A24" s="26"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="89" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
+      <c r="D24" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="3"/>
       <c r="J24" s="18"/>
       <c r="L24" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="26"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -10033,7 +9835,7 @@
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -10044,14 +9846,16 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="J26" s="18"/>
       <c r="L26" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -10061,13 +9865,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="E27" s="50"/>
-      <c r="F27" s="21" t="s">
-        <v>154</v>
-      </c>
       <c r="G27" s="31">
         <v>1</v>
       </c>
@@ -10078,12 +9876,14 @@
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -10238,38 +10038,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="176"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="181"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="177"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="179"/>
+      <c r="A2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="184"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="44"/>
@@ -10282,7 +10083,7 @@
       <c r="H3" s="16"/>
       <c r="I3" s="17"/>
       <c r="K3" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -10292,13 +10093,13 @@
       <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="185" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="187"/>
+      <c r="A4" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="2"/>
@@ -10307,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -10316,17 +10117,17 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="185"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="187"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="L5" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
@@ -10345,7 +10146,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="54"/>
       <c r="L6" s="13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -10356,7 +10157,7 @@
       <c r="A7" s="26"/>
       <c r="B7" s="37"/>
       <c r="C7" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="24"/>
@@ -10365,7 +10166,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="3"/>
       <c r="L7" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -10373,7 +10174,7 @@
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
       <c r="D8" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
@@ -10381,7 +10182,7 @@
       <c r="H8" s="38"/>
       <c r="I8" s="3"/>
       <c r="L8" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="18"/>
     </row>
@@ -10396,7 +10197,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="L9" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -10405,7 +10206,7 @@
       <c r="A10" s="26"/>
       <c r="B10" s="37"/>
       <c r="C10" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="25"/>
@@ -10414,7 +10215,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="3"/>
       <c r="L10" s="64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -10423,7 +10224,7 @@
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
       <c r="D11" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
@@ -10432,7 +10233,7 @@
       <c r="I11" s="3"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -10450,7 +10251,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="L12" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -10462,7 +10263,7 @@
       <c r="A13" s="26"/>
       <c r="B13" s="37"/>
       <c r="C13" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="24"/>
@@ -10471,7 +10272,7 @@
       <c r="H13" s="37"/>
       <c r="I13" s="3"/>
       <c r="L13" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -10490,7 +10291,7 @@
       <c r="H14" s="37"/>
       <c r="I14" s="3"/>
       <c r="L14" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -10502,7 +10303,7 @@
       <c r="A15" s="26"/>
       <c r="B15" s="33"/>
       <c r="C15" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="24"/>
@@ -10511,7 +10312,7 @@
       <c r="H15" s="37"/>
       <c r="I15" s="3"/>
       <c r="L15" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -10528,7 +10329,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="3"/>
       <c r="L16" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -10538,7 +10339,7 @@
       <c r="A17" s="26"/>
       <c r="B17" s="37"/>
       <c r="C17" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="24"/>
@@ -10552,7 +10353,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M17" s="18"/>
       <c r="Q17" s="18"/>
@@ -10562,7 +10363,7 @@
       <c r="B18" s="50"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -10571,7 +10372,7 @@
       <c r="I18" s="3"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M18" s="18"/>
       <c r="Q18" s="18"/>
@@ -10590,7 +10391,7 @@
         <v>3</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
@@ -10600,7 +10401,7 @@
       <c r="A20" s="26"/>
       <c r="B20" s="37"/>
       <c r="C20" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
@@ -10609,7 +10410,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="3"/>
       <c r="L20" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
@@ -10635,7 +10436,7 @@
       <c r="C22" s="37"/>
       <c r="D22" s="51"/>
       <c r="E22" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -10645,7 +10446,7 @@
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="1"/>
       <c r="B23" s="37"/>
       <c r="C23" s="2"/>
@@ -10661,7 +10462,9 @@
       <c r="B24" s="37"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="37"/>
@@ -10671,25 +10474,21 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="27" t="s">
-        <v>68</v>
-      </c>
       <c r="E25" s="37"/>
-      <c r="F25" s="21" t="s">
-        <v>43</v>
-      </c>
       <c r="G25" s="31">
         <v>2</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="E26" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="2"/>
